--- a/100runs/run046/NotionalETEOutput046.xlsx
+++ b/100runs/run046/NotionalETEOutput046.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="19">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,34 +49,28 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_BRAVER_State_Update</t>
+  </si>
+  <si>
     <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>Missile_BRAVER_State_Update</t>
+    <t>MISSILE_BRAVER_84.MISSILE_BRAVER_84</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>MISSILE_SOMERSAULT_128.MISSILE_SOMERSAULT_128</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_32.MISSILE_SOMERSAULT_32</t>
+    <t>MISSILE_BRAVER_199.MISSILE_BRAVER_199</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_414.MISSILE_BRAVER_414</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT_434.MISSILE_SOMERSAULT_434</t>
-  </si>
-  <si>
-    <t>MISSILE_HELLMASKER_191.MISSILE_HELLMASKER_191</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT</t>
+    <t>MISSILE_BRAVER_281.MISSILE_BRAVER_281</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER</t>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
 </sst>
 </file>
@@ -483,31 +477,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>201.1318106808344</v>
+        <v>1116579.379439667</v>
       </c>
       <c r="G2">
-        <v>-68.76560401651616</v>
+        <v>4841127.613264461</v>
       </c>
       <c r="H2">
-        <v>898.7575280578176</v>
+        <v>3985222.814321592</v>
       </c>
       <c r="I2">
-        <v>-2024.488520065666</v>
+        <v>1114861.103420793</v>
       </c>
       <c r="J2">
-        <v>1602.16192443321</v>
+        <v>4843230.73581401</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984371.981199934</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,31 +512,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>201.1318106808344</v>
+        <v>1116579.379439667</v>
       </c>
       <c r="G3">
-        <v>-68.76560401651616</v>
+        <v>4841127.613264461</v>
       </c>
       <c r="H3">
-        <v>898.7575280578176</v>
+        <v>3985222.814321592</v>
       </c>
       <c r="I3">
-        <v>-1984.51972599844</v>
+        <v>1114890.717410509</v>
       </c>
       <c r="J3">
-        <v>1563.188063316314</v>
+        <v>4843182.084150825</v>
       </c>
       <c r="K3">
-        <v>243.7026381926819</v>
+        <v>3984675.777318482</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -553,31 +547,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>201.1318106808344</v>
+        <v>1116579.379439667</v>
       </c>
       <c r="G4">
-        <v>-68.76560401651616</v>
+        <v>4841127.613264461</v>
       </c>
       <c r="H4">
-        <v>898.7575280578176</v>
+        <v>3985222.814321592</v>
       </c>
       <c r="I4">
-        <v>-1943.566737147926</v>
+        <v>1114921.060617479</v>
       </c>
       <c r="J4">
-        <v>1524.214202199419</v>
+        <v>4843133.432487639</v>
       </c>
       <c r="K4">
-        <v>475.2531457522866</v>
+        <v>3984964.424770008</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -588,31 +582,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>201.1318106808344</v>
+        <v>1116579.379439667</v>
       </c>
       <c r="G5">
-        <v>-68.76560401651616</v>
+        <v>4841127.613264461</v>
       </c>
       <c r="H5">
-        <v>898.7575280578176</v>
+        <v>3985222.814321592</v>
       </c>
       <c r="I5">
-        <v>-1901.605318623026</v>
+        <v>1114952.150998004</v>
       </c>
       <c r="J5">
-        <v>1485.240341082524</v>
+        <v>4843084.780824454</v>
       </c>
       <c r="K5">
-        <v>694.6515226788159</v>
+        <v>3985237.923554512</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -623,31 +617,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>201.1318106808344</v>
+        <v>1116579.379439667</v>
       </c>
       <c r="G6">
-        <v>-68.76560401651616</v>
+        <v>4841127.613264461</v>
       </c>
       <c r="H6">
-        <v>898.7575280578176</v>
+        <v>3985222.814321592</v>
       </c>
       <c r="I6">
-        <v>-1858.610638770748</v>
+        <v>1114984.006950547</v>
       </c>
       <c r="J6">
-        <v>1446.266479965628</v>
+        <v>4843036.129161268</v>
       </c>
       <c r="K6">
-        <v>901.8977689722683</v>
+        <v>3985496.273671994</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -658,31 +652,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>201.1318106808344</v>
+        <v>1116579.379439667</v>
       </c>
       <c r="G7">
-        <v>-68.76560401651616</v>
+        <v>4841127.613264461</v>
       </c>
       <c r="H7">
-        <v>898.7575280578176</v>
+        <v>3985222.814321592</v>
       </c>
       <c r="I7">
-        <v>-1814.557254481487</v>
+        <v>1115016.647326615</v>
       </c>
       <c r="J7">
-        <v>1407.292618848733</v>
+        <v>4842987.477498083</v>
       </c>
       <c r="K7">
-        <v>1096.991884632646</v>
+        <v>3985739.475122454</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,31 +687,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>201.1318106808344</v>
+        <v>1116579.379439667</v>
       </c>
       <c r="G8">
-        <v>-68.76560401651616</v>
+        <v>4841127.613264461</v>
       </c>
       <c r="H8">
-        <v>898.7575280578176</v>
+        <v>3985222.814321592</v>
       </c>
       <c r="I8">
-        <v>-1769.419096132474</v>
+        <v>1115050.091441915</v>
       </c>
       <c r="J8">
-        <v>1368.318757731837</v>
+        <v>4842938.825834897</v>
       </c>
       <c r="K8">
-        <v>1279.933869659946</v>
+        <v>3985967.52790589</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -728,31 +722,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>201.1318106808344</v>
+        <v>1116579.379439667</v>
       </c>
       <c r="G9">
-        <v>-68.76560401651616</v>
+        <v>4841127.613264461</v>
       </c>
       <c r="H9">
-        <v>898.7575280578176</v>
+        <v>3985222.814321592</v>
       </c>
       <c r="I9">
-        <v>-1723.169452160461</v>
+        <v>1115084.359087786</v>
       </c>
       <c r="J9">
-        <v>1329.344896614942</v>
+        <v>4842890.174171712</v>
       </c>
       <c r="K9">
-        <v>1450.723724054171</v>
+        <v>3986180.432022306</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -763,31 +757,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>201.1318106808344</v>
+        <v>1116579.379439667</v>
       </c>
       <c r="G10">
-        <v>-57.41046716898001</v>
+        <v>4841144.126094075</v>
       </c>
       <c r="H10">
-        <v>898.7575280578176</v>
+        <v>3985222.814321592</v>
       </c>
       <c r="I10">
-        <v>-1675.780953254529</v>
+        <v>1115119.470542911</v>
       </c>
       <c r="J10">
-        <v>1290.371035498046</v>
+        <v>4842841.522508527</v>
       </c>
       <c r="K10">
-        <v>1609.361447815319</v>
+        <v>3986378.187471698</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,31 +792,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>156.1017484130843</v>
+        <v>1116530.698837723</v>
       </c>
       <c r="G11">
-        <v>-46.05533032144384</v>
+        <v>4841160.638923688</v>
       </c>
       <c r="H11">
-        <v>1107.26322677766</v>
+        <v>3985422.068452675</v>
       </c>
       <c r="I11">
-        <v>-1627.225556159658</v>
+        <v>1115155.446585316</v>
       </c>
       <c r="J11">
-        <v>1251.397174381151</v>
+        <v>4842792.870845342</v>
       </c>
       <c r="K11">
-        <v>1755.847040943391</v>
+        <v>3986560.794254069</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,31 +827,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>129.6488457825542</v>
+        <v>1116502.101426164</v>
       </c>
       <c r="G12">
-        <v>-34.70019347390768</v>
+        <v>4841177.151753303</v>
       </c>
       <c r="H12">
-        <v>1231.459884321457</v>
+        <v>3985540.754403391</v>
       </c>
       <c r="I12">
-        <v>-1577.474527081473</v>
+        <v>1115192.308504669</v>
       </c>
       <c r="J12">
-        <v>1212.423313264256</v>
+        <v>4842744.219182156</v>
       </c>
       <c r="K12">
-        <v>1890.180503438387</v>
+        <v>3986728.252369417</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -868,31 +862,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>112.9498329590374</v>
+        <v>1116484.048641976</v>
       </c>
       <c r="G13">
-        <v>-23.34505662637152</v>
+        <v>4841193.664582917</v>
       </c>
       <c r="H13">
-        <v>1320.214841336827</v>
+        <v>3985625.571230691</v>
       </c>
       <c r="I13">
-        <v>-1526.498424682343</v>
+        <v>1115230.078114873</v>
       </c>
       <c r="J13">
-        <v>1173.44945214736</v>
+        <v>4842695.567518971</v>
       </c>
       <c r="K13">
-        <v>2012.361835300307</v>
+        <v>3986880.561817742</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -903,31 +897,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>101.3040092011892</v>
+        <v>1116471.458703563</v>
       </c>
       <c r="G14">
-        <v>-11.98991977883535</v>
+        <v>4841210.177412529</v>
       </c>
       <c r="H14">
-        <v>1389.328278814193</v>
+        <v>3985691.618048668</v>
       </c>
       <c r="I14">
-        <v>-1474.26708265879</v>
+        <v>1115268.777766981</v>
       </c>
       <c r="J14">
-        <v>1134.475591030464</v>
+        <v>4842646.915855787</v>
       </c>
       <c r="K14">
-        <v>2122.391036529151</v>
+        <v>3987017.722599046</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -938,31 +932,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>92.61587592520468</v>
+        <v>1116462.066232482</v>
       </c>
       <c r="G15">
-        <v>-0.6347829312991982</v>
+        <v>4841226.690242143</v>
       </c>
       <c r="H15">
-        <v>1445.937545035023</v>
+        <v>3985745.715515651</v>
       </c>
       <c r="I15">
-        <v>-1420.749591889861</v>
+        <v>1115308.430362419</v>
       </c>
       <c r="J15">
-        <v>1095.501729913569</v>
+        <v>4842598.264192602</v>
       </c>
       <c r="K15">
-        <v>2220.268107124918</v>
+        <v>3987139.734713328</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -973,31 +967,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>85.82296896522739</v>
+        <v>1116454.722631716</v>
       </c>
       <c r="G16">
-        <v>10.72035391623697</v>
+        <v>4841243.203071757</v>
       </c>
       <c r="H16">
-        <v>1493.881461247915</v>
+        <v>3985791.532121261</v>
       </c>
       <c r="I16">
-        <v>-1365.914282145935</v>
+        <v>1115349.05936654</v>
       </c>
       <c r="J16">
-        <v>1056.527868796674</v>
+        <v>4842549.612529416</v>
       </c>
       <c r="K16">
-        <v>2305.99304708761</v>
+        <v>3987246.598160588</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1008,31 +1002,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>80.32701262683182</v>
+        <v>1116448.781123991</v>
       </c>
       <c r="G17">
-        <v>22.07549076377313</v>
+        <v>4841259.715901371</v>
       </c>
       <c r="H17">
-        <v>1535.464076674147</v>
+        <v>3985831.26968218</v>
       </c>
       <c r="I17">
-        <v>-1309.728703347125</v>
+        <v>1115390.688822509</v>
       </c>
       <c r="J17">
-        <v>1017.554007679778</v>
+        <v>4842500.960866231</v>
       </c>
       <c r="K17">
-        <v>2379.565856417224</v>
+        <v>3987338.312940824</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1043,31 +1037,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>75.76341054701287</v>
+        <v>1116443.847555502</v>
       </c>
       <c r="G18">
-        <v>33.43062761130928</v>
+        <v>4841276.228730985</v>
       </c>
       <c r="H18">
-        <v>1572.177411341921</v>
+        <v>3985866.354016293</v>
       </c>
       <c r="I18">
-        <v>-1252.159606360179</v>
+        <v>1115433.343365534</v>
       </c>
       <c r="J18">
-        <v>978.5801465628826</v>
+        <v>4842452.309203045</v>
       </c>
       <c r="K18">
-        <v>2440.986535113764</v>
+        <v>3987414.879054039</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1078,31 +1072,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>71.89610115275907</v>
+        <v>1116439.666727412</v>
       </c>
       <c r="G19">
-        <v>44.78576445884546</v>
+        <v>4841292.741560598</v>
       </c>
       <c r="H19">
-        <v>1605.04323365275</v>
+        <v>3985897.761555306</v>
       </c>
       <c r="I19">
-        <v>-1193.172923322528</v>
+        <v>1115477.048237439</v>
       </c>
       <c r="J19">
-        <v>939.6062854459872</v>
+        <v>4842403.65753986</v>
       </c>
       <c r="K19">
-        <v>2490.255083177227</v>
+        <v>3987476.296500232</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1113,31 +1107,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>68.5647914057305</v>
+        <v>1116436.065351896</v>
       </c>
       <c r="G20">
-        <v>56.14090130638161</v>
+        <v>4841309.254390212</v>
       </c>
       <c r="H20">
-        <v>1634.792022676723</v>
+        <v>3985926.190366336</v>
       </c>
       <c r="I20">
-        <v>-1132.733747481827</v>
+        <v>1115521.829301606</v>
       </c>
       <c r="J20">
-        <v>900.6324243290918</v>
+        <v>4842355.005876674</v>
       </c>
       <c r="K20">
-        <v>2527.371500607614</v>
+        <v>3987522.565279402</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1148,31 +1142,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>65.65638586202213</v>
+        <v>1116432.921164981</v>
       </c>
       <c r="G21">
-        <v>67.49603815391777</v>
+        <v>4841325.767219827</v>
       </c>
       <c r="H21">
-        <v>1661.964144669458</v>
+        <v>3985952.15683915</v>
       </c>
       <c r="I21">
-        <v>-1070.806312539072</v>
+        <v>1115567.713058282</v>
       </c>
       <c r="J21">
-        <v>861.6585632121962</v>
+        <v>4842306.354213489</v>
       </c>
       <c r="K21">
-        <v>2552.335787404924</v>
+        <v>3987553.68539155</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1183,31 +1177,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>63.08853865373908</v>
+        <v>1116430.145145106</v>
       </c>
       <c r="G22">
-        <v>78.85117500145395</v>
+        <v>4841342.28004944</v>
       </c>
       <c r="H22">
-        <v>1686.970589824288</v>
+        <v>3985976.05372797</v>
       </c>
       <c r="I22">
-        <v>-1007.353971483047</v>
+        <v>1115614.726660253</v>
       </c>
       <c r="J22">
-        <v>822.684702095301</v>
+        <v>4842257.702550304</v>
       </c>
       <c r="K22">
-        <v>2565.147943569159</v>
+        <v>3987569.656836676</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1218,31 +1212,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>60.79969594406112</v>
+        <v>1116427.670748331</v>
       </c>
       <c r="G23">
-        <v>90.2063118489901</v>
+        <v>4841358.792879053</v>
       </c>
       <c r="H23">
-        <v>1710.131237840471</v>
+        <v>3985998.186719174</v>
       </c>
       <c r="I23">
-        <v>-942.3391749036</v>
+        <v>1115662.89792892</v>
       </c>
       <c r="J23">
-        <v>783.7108409784054</v>
+        <v>4842209.050887119</v>
       </c>
       <c r="K23">
-        <v>2565.807969100317</v>
+        <v>3987570.47961478</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1253,31 +1247,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>58.74280929477675</v>
+        <v>1116425.44711205</v>
       </c>
       <c r="G24">
-        <v>101.5614486965263</v>
+        <v>4841375.305708667</v>
       </c>
       <c r="H24">
-        <v>1731.699945139622</v>
+        <v>3986018.798405368</v>
       </c>
       <c r="I24">
-        <v>-875.7234487709009</v>
+        <v>1115712.255370762</v>
       </c>
       <c r="J24">
-        <v>744.7369798615099</v>
+        <v>4842160.399223933</v>
       </c>
       <c r="K24">
-        <v>2554.315863998399</v>
+        <v>3987556.153725861</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1288,31 +1282,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>56.8812231382212</v>
+        <v>1116423.434609066</v>
       </c>
       <c r="G25">
-        <v>112.9165855440624</v>
+        <v>4841391.818538281</v>
       </c>
       <c r="H25">
-        <v>1751.88155073632</v>
+        <v>3986038.08453669</v>
       </c>
       <c r="I25">
-        <v>-807.4673716675276</v>
+        <v>1115762.828194201</v>
       </c>
       <c r="J25">
-        <v>705.7631187446145</v>
+        <v>4842111.747560748</v>
       </c>
       <c r="K25">
-        <v>2530.671628263405</v>
+        <v>3987526.67916992</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1323,31 +1317,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>55.18590134453193</v>
+        <v>1116421.601849322</v>
       </c>
       <c r="G26">
-        <v>124.2717223915986</v>
+        <v>4841408.331367895</v>
       </c>
       <c r="H26">
-        <v>1770.843736462831</v>
+        <v>3986056.205354795</v>
       </c>
       <c r="I26">
-        <v>-737.5305514599236</v>
+        <v>1115814.646326892</v>
       </c>
       <c r="J26">
-        <v>666.7892576277191</v>
+        <v>4842063.095897563</v>
       </c>
       <c r="K26">
-        <v>2494.875261895335</v>
+        <v>3987482.055946957</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1358,31 +1352,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>53.6335068862173</v>
+        <v>1116419.923603881</v>
       </c>
       <c r="G27">
-        <v>135.6268592391347</v>
+        <v>4841424.844197508</v>
       </c>
       <c r="H27">
-        <v>1788.725503773602</v>
+        <v>3986073.293693529</v>
       </c>
       <c r="I27">
-        <v>-665.8716013954023</v>
+        <v>1115867.740433428</v>
       </c>
       <c r="J27">
-        <v>627.8153965108235</v>
+        <v>4842014.444234378</v>
       </c>
       <c r="K27">
-        <v>2446.926764894189</v>
+        <v>3987422.284056972</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1393,31 +1387,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>52.2050411734544</v>
+        <v>1116418.379333959</v>
       </c>
       <c r="G28">
-        <v>146.9819960866709</v>
+        <v>4841441.357027122</v>
       </c>
       <c r="H28">
-        <v>1805.643363120928</v>
+        <v>3986089.460893681</v>
       </c>
       <c r="I28">
-        <v>-592.4481156105678</v>
+        <v>1115922.141933491</v>
       </c>
       <c r="J28">
-        <v>588.8415353939281</v>
+        <v>4841965.792571193</v>
       </c>
       <c r="K28">
-        <v>2386.826137259966</v>
+        <v>3987347.363499965</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1428,31 +1422,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>50.8848601397271</v>
+        <v>1116416.952127241</v>
       </c>
       <c r="G29">
-        <v>158.3371329342071</v>
+        <v>4841457.869856736</v>
       </c>
       <c r="H29">
-        <v>1821.695938829244</v>
+        <v>3986104.801203534</v>
       </c>
       <c r="I29">
-        <v>-517.2166440366491</v>
+        <v>1115977.883020446</v>
       </c>
       <c r="J29">
-        <v>549.8676742770326</v>
+        <v>4841917.140908008</v>
       </c>
       <c r="K29">
-        <v>2314.573378992668</v>
+        <v>3987257.294275935</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1463,31 +1457,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>49.65994978798302</v>
+        <v>1116415.627914698</v>
       </c>
       <c r="G30">
-        <v>169.6922697817432</v>
+        <v>4841474.38268635</v>
       </c>
       <c r="H30">
-        <v>1836.967452615486</v>
+        <v>3986119.395107818</v>
       </c>
       <c r="I30">
-        <v>-440.1326666869077</v>
+        <v>1116034.996680386</v>
       </c>
       <c r="J30">
-        <v>510.8938131601371</v>
+        <v>4841868.489244822</v>
       </c>
       <c r="K30">
-        <v>2230.168490092292</v>
+        <v>3987152.076384883</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1498,31 +1492,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>48.51938408689805</v>
+        <v>1116414.394884538</v>
       </c>
       <c r="G31">
-        <v>181.0474066292794</v>
+        <v>4841490.895515963</v>
       </c>
       <c r="H31">
-        <v>1851.530398272745</v>
+        <v>3986133.311883718</v>
       </c>
       <c r="I31">
-        <v>-361.150567310888</v>
+        <v>1116093.516711658</v>
       </c>
       <c r="J31">
-        <v>471.9199520432418</v>
+        <v>4841819.837581636</v>
       </c>
       <c r="K31">
-        <v>2133.611470558842</v>
+        <v>3987031.709826809</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1533,31 +1527,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>47.45391337777754</v>
+        <v>1116413.243037242</v>
       </c>
       <c r="G32">
-        <v>192.4025434768156</v>
+        <v>4841507.408345577</v>
       </c>
       <c r="H32">
-        <v>1865.447622915404</v>
+        <v>3986146.611589771</v>
       </c>
       <c r="I32">
-        <v>-280.2236063999329</v>
+        <v>1116153.477744863</v>
       </c>
       <c r="J32">
-        <v>432.9460909263462</v>
+        <v>4841771.185918451</v>
       </c>
       <c r="K32">
-        <v>2024.902320392314</v>
+        <v>3986896.194601712</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1568,31 +1562,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>46.45564773552579</v>
+        <v>1116412.163843256</v>
       </c>
       <c r="G33">
-        <v>203.7576803243517</v>
+        <v>4841523.92117519</v>
       </c>
       <c r="H33">
-        <v>1878.773966096223</v>
+        <v>3986159.346632253</v>
       </c>
       <c r="I33">
-        <v>-197.3038935279839</v>
+        <v>1116214.915263347</v>
       </c>
       <c r="J33">
-        <v>393.9722298094509</v>
+        <v>4841722.534255266</v>
       </c>
       <c r="K33">
-        <v>1904.041039592712</v>
+        <v>3986745.530709594</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1603,31 +1597,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>45.51781044946949</v>
+        <v>1116411.14997649</v>
       </c>
       <c r="G34">
-        <v>215.1128171718879</v>
+        <v>4841540.434004805</v>
       </c>
       <c r="H34">
-        <v>1891.557564924698</v>
+        <v>3986171.563012391</v>
       </c>
       <c r="I34">
-        <v>-112.3423590113</v>
+        <v>1116277.865624203</v>
       </c>
       <c r="J34">
-        <v>354.9983686925553</v>
+        <v>4841673.882592081</v>
       </c>
       <c r="K34">
-        <v>1771.027628160032</v>
+        <v>3986579.718150453</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1638,31 +1632,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>44.63454399097686</v>
+        <v>1116410.195104551</v>
       </c>
       <c r="G35">
-        <v>226.4679540194241</v>
+        <v>4841556.946834418</v>
       </c>
       <c r="H35">
-        <v>1903.840903668347</v>
+        <v>3986183.301329393</v>
       </c>
       <c r="I35">
-        <v>-25.28872487032177</v>
+        <v>1116342.366079781</v>
       </c>
       <c r="J35">
-        <v>316.0245075756599</v>
+        <v>4841625.230928895</v>
       </c>
       <c r="K35">
-        <v>1625.862086094276</v>
+        <v>3986398.756924289</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1673,31 +1667,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>43.80075575851224</v>
+        <v>1116409.293721986</v>
       </c>
       <c r="G36">
-        <v>237.8230908669602</v>
+        <v>4841573.459664032</v>
       </c>
       <c r="H36">
-        <v>1915.661665612154</v>
+        <v>3986194.597594504</v>
       </c>
       <c r="I36">
-        <v>63.90852492350344</v>
+        <v>1116408.454799738</v>
       </c>
       <c r="J36">
-        <v>277.0506464587645</v>
+        <v>4841576.57926571</v>
       </c>
       <c r="K36">
-        <v>1468.544413395445</v>
+        <v>3986202.647031104</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1708,31 +1702,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>43.01199431284785</v>
+        <v>1116408.441016481</v>
       </c>
       <c r="G37">
-        <v>249.1782277144964</v>
+        <v>4841589.972493646</v>
       </c>
       <c r="H37">
-        <v>1927.053430262379</v>
+        <v>3986205.48389728</v>
       </c>
       <c r="I37">
-        <v>155.3021749335363</v>
+        <v>1116476.170893624</v>
       </c>
       <c r="J37">
-        <v>238.076785341869</v>
+        <v>4841527.927602525</v>
       </c>
       <c r="K37">
-        <v>1299.074610063537</v>
+        <v>3985991.388470897</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1743,31 +1737,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>42.26434922951591</v>
+        <v>1116407.632760599</v>
       </c>
       <c r="G38">
-        <v>260.5333645620325</v>
+        <v>4841606.485323259</v>
       </c>
       <c r="H38">
-        <v>1938.04624841091</v>
+        <v>3986215.988955136</v>
       </c>
       <c r="I38">
-        <v>248.9463094944508</v>
+        <v>1116545.554434025</v>
       </c>
       <c r="J38">
-        <v>199.1029242249736</v>
+        <v>4841479.27593934</v>
       </c>
       <c r="K38">
-        <v>1117.452676098553</v>
+        <v>3985764.981243667</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1778,31 +1772,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>41.55436942268706</v>
+        <v>1116406.865223478</v>
       </c>
       <c r="G39">
-        <v>271.8885014095687</v>
+        <v>4841622.998152873</v>
       </c>
       <c r="H39">
-        <v>1948.667119869707</v>
+        <v>3986226.138569879</v>
       </c>
       <c r="I39">
-        <v>344.8963447179028</v>
+        <v>1116616.646480276</v>
       </c>
       <c r="J39">
-        <v>160.1290631080781</v>
+        <v>4841430.624276155</v>
       </c>
       <c r="K39">
-        <v>923.6786115004924</v>
+        <v>3985523.425349414</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1813,31 +1807,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>40.87899604598659</v>
+        <v>1116406.135098293</v>
       </c>
       <c r="G40">
-        <v>283.2436382571049</v>
+        <v>4841639.510982487</v>
       </c>
       <c r="H40">
-        <v>1958.94039299756</v>
+        <v>3986235.956009514</v>
       </c>
       <c r="I40">
-        <v>443.2090612863194</v>
+        <v>1116689.489102762</v>
       </c>
       <c r="J40">
-        <v>121.1552019911826</v>
+        <v>4841381.97261297</v>
       </c>
       <c r="K40">
-        <v>717.7524162693559</v>
+        <v>3985266.72078814</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1848,31 +1842,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>40.2355069931532</v>
+        <v>1116405.439442261</v>
       </c>
       <c r="G41">
-        <v>294.598775104641</v>
+        <v>4841656.0238121</v>
       </c>
       <c r="H41">
-        <v>1968.888100896973</v>
+        <v>3986245.462329512</v>
       </c>
       <c r="I41">
-        <v>543.9426380541909</v>
+        <v>1116764.125407814</v>
       </c>
       <c r="J41">
-        <v>82.18134087428726</v>
+        <v>4841333.320949784</v>
       </c>
       <c r="K41">
-        <v>499.6740904051437</v>
+        <v>3984994.867559844</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1883,31 +1877,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>39.62147070145191</v>
+        <v>1116404.775626695</v>
       </c>
       <c r="G42">
-        <v>305.9539119521772</v>
+        <v>4841672.536641714</v>
       </c>
       <c r="H42">
-        <v>1978.530245958168</v>
+        <v>3986254.676644746</v>
       </c>
       <c r="I42">
-        <v>647.1566864767819</v>
+        <v>1116840.599563213</v>
       </c>
       <c r="J42">
-        <v>43.20747975739174</v>
+        <v>4841284.669286599</v>
       </c>
       <c r="K42">
-        <v>269.4436339078547</v>
+        <v>3984707.865664525</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1918,31 +1912,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>39.0347074699682</v>
+        <v>1116404.141295187</v>
       </c>
       <c r="G43">
-        <v>317.3090487997134</v>
+        <v>4841689.049471329</v>
       </c>
       <c r="H43">
-        <v>1987.885041990088</v>
+        <v>3986263.616360861</v>
       </c>
       <c r="I43">
-        <v>752.9122858865952</v>
+        <v>1116918.956824333</v>
       </c>
       <c r="J43">
-        <v>4.233618640496212</v>
+        <v>4841236.017623413</v>
       </c>
       <c r="K43">
-        <v>27.06104677748973</v>
+        <v>3984405.715102184</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1953,31 +1947,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>38.47325688990227</v>
+        <v>1116403.5343284</v>
       </c>
       <c r="G44">
-        <v>328.6641856472495</v>
+        <v>4841705.562300942</v>
       </c>
       <c r="H44">
-        <v>1996.969121305576</v>
+        <v>3986272.29737218</v>
       </c>
       <c r="I44">
-        <v>861.2720196385067</v>
+        <v>1116999.243560922</v>
       </c>
       <c r="J44">
-        <v>-34.74024247639913</v>
+        <v>4841187.365960228</v>
       </c>
       <c r="K44">
-        <v>-227.4736709859507</v>
+        <v>3984088.415872821</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1988,31 +1982,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>37.93535027765925</v>
+        <v>1116402.952814266</v>
       </c>
       <c r="G45">
-        <v>340.0193224947856</v>
+        <v>4841722.075130556</v>
       </c>
       <c r="H45">
-        <v>2005.797712676879</v>
+        <v>3986280.734231763</v>
       </c>
       <c r="I45">
-        <v>972.3000121449325</v>
+        <v>1117081.507284536</v>
       </c>
       <c r="J45">
-        <v>-73.71410359329465</v>
+        <v>4841138.714297043</v>
       </c>
       <c r="K45">
-        <v>-494.160519382468</v>
+        <v>3983755.967976436</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2023,31 +2017,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>37.41938722743831</v>
+        <v>1116402.395022635</v>
       </c>
       <c r="G46">
-        <v>351.3744593423219</v>
+        <v>4841738.587960169</v>
       </c>
       <c r="H46">
-        <v>2014.384794944278</v>
+        <v>3986288.940298198</v>
       </c>
       <c r="I46">
-        <v>1086.06196682295</v>
+        <v>1117165.796676664</v>
       </c>
       <c r="J46">
-        <v>-112.6879647101902</v>
+        <v>4841090.062633857</v>
       </c>
       <c r="K46">
-        <v>-772.9994984120622</v>
+        <v>3983408.371413027</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2058,31 +2052,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>36.9239155751803</v>
+        <v>1116401.859383618</v>
       </c>
       <c r="G47">
-        <v>362.729596189858</v>
+        <v>4841755.100789783</v>
       </c>
       <c r="H47">
-        <v>2022.743230168788</v>
+        <v>3986296.927862845</v>
       </c>
       <c r="I47">
-        <v>1202.625204975833</v>
+        <v>1117252.161617527</v>
       </c>
       <c r="J47">
-        <v>-151.6618258270857</v>
+        <v>4841041.410970672</v>
       </c>
       <c r="K47">
-        <v>-1063.990608074732</v>
+        <v>3983045.626182598</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2093,31 +2087,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>36.44761420254247</v>
+        <v>1116401.344468996</v>
       </c>
       <c r="G48">
-        <v>374.0847330373941</v>
+        <v>4841771.613619397</v>
       </c>
       <c r="H48">
-        <v>2030.884879513258</v>
+        <v>3986304.708260578</v>
       </c>
       <c r="I48">
-        <v>1322.058705632019</v>
+        <v>1117340.653215606</v>
       </c>
       <c r="J48">
-        <v>-190.6356869439809</v>
+        <v>4840992.759307487</v>
       </c>
       <c r="K48">
-        <v>-1367.133848370476</v>
+        <v>3982667.732285146</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2128,31 +2122,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>35.98927821718397</v>
+        <v>1116400.848976195</v>
       </c>
       <c r="G49">
-        <v>385.4398698849304</v>
+        <v>4841788.12644901</v>
       </c>
       <c r="H49">
-        <v>2038.820704472402</v>
+        <v>3986312.291966522</v>
       </c>
       <c r="I49">
-        <v>1444.433146365058</v>
+        <v>1117431.323837875</v>
       </c>
       <c r="J49">
-        <v>-229.6095480608764</v>
+        <v>4840944.107644302</v>
       </c>
       <c r="K49">
-        <v>-1682.429219299298</v>
+        <v>3982274.689720671</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2163,31 +2157,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>35.5478061308529</v>
+        <v>1116400.371714432</v>
       </c>
       <c r="G50">
-        <v>396.7950067324665</v>
+        <v>4841804.639278624</v>
       </c>
       <c r="H50">
-        <v>2046.560855619922</v>
+        <v>3986319.68868086</v>
       </c>
       <c r="I50">
-        <v>1569.820945118726</v>
+        <v>1117524.227140803</v>
       </c>
       <c r="J50">
-        <v>-268.5834091777719</v>
+        <v>4840895.455981116</v>
       </c>
       <c r="K50">
-        <v>-2009.876720861196</v>
+        <v>3981866.498489175</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2198,31 +2192,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>35.12218872465611</v>
+        <v>1116399.911592671</v>
       </c>
       <c r="G51">
-        <v>408.1501435800026</v>
+        <v>4841821.152108238</v>
       </c>
       <c r="H51">
-        <v>2054.114750675483</v>
+        <v>3986326.907403441</v>
       </c>
       <c r="I51">
-        <v>1698.296303062044</v>
+        <v>1117619.418102097</v>
       </c>
       <c r="J51">
-        <v>-307.5572702946674</v>
+        <v>4840846.804317931</v>
       </c>
       <c r="K51">
-        <v>-2349.476353056171</v>
+        <v>3981443.158590656</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2233,31 +2227,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>34.71149934530963</v>
+        <v>1116399.467609137</v>
       </c>
       <c r="G52">
-        <v>419.5052804275388</v>
+        <v>4841837.664937852</v>
       </c>
       <c r="H52">
-        <v>2061.491143397718</v>
+        <v>3986333.956499612</v>
       </c>
       <c r="I52">
-        <v>1829.935248499556</v>
+        <v>1117716.953053237</v>
       </c>
       <c r="J52">
-        <v>-346.531131411563</v>
+        <v>4840798.152654747</v>
       </c>
       <c r="K52">
-        <v>-2701.228115884221</v>
+        <v>3981004.670025114</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2268,31 +2262,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>34.31488542002313</v>
+        <v>1116399.038842139</v>
       </c>
       <c r="G53">
-        <v>430.860417275075</v>
+        <v>4841854.177767466</v>
       </c>
       <c r="H53">
-        <v>2068.698184567278</v>
+        <v>3986340.843758496</v>
       </c>
       <c r="I53">
-        <v>1964.815681862853</v>
+        <v>1117816.889712819</v>
       </c>
       <c r="J53">
-        <v>-385.5049925284581</v>
+        <v>4840749.500991561</v>
       </c>
       <c r="K53">
-        <v>-3065.132009345345</v>
+        <v>3980551.032792551</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2303,31 +2297,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>33.93156101321623</v>
+        <v>1116398.624442026</v>
       </c>
       <c r="G54">
-        <v>442.2155541226111</v>
+        <v>4841870.69059708</v>
       </c>
       <c r="H54">
-        <v>2075.743476125359</v>
+        <v>3986347.576444731</v>
       </c>
       <c r="I54">
-        <v>2103.017421810001</v>
+        <v>1117919.287220704</v>
       </c>
       <c r="J54">
-        <v>-424.4788536453536</v>
+        <v>4840700.849328375</v>
       </c>
       <c r="K54">
-        <v>-3441.188033439548</v>
+        <v>3980082.246892966</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2338,31 +2332,31 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>310.9540060211299</v>
+        <v>1116579.146720662</v>
       </c>
       <c r="G55">
-        <v>-83.58442722020095</v>
+        <v>4841111.473234341</v>
       </c>
       <c r="H55">
-        <v>529.2263618090919</v>
+        <v>3985230.181727015</v>
       </c>
       <c r="I55">
-        <v>-1576.35220545903</v>
+        <v>1114860.284526552</v>
       </c>
       <c r="J55">
-        <v>1564.562185146325</v>
+        <v>4843224.338889656</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984363.828483623</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2373,31 +2367,31 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>310.9540060211299</v>
+        <v>1116579.146720662</v>
       </c>
       <c r="G56">
-        <v>-83.58442722020095</v>
+        <v>4841111.473234341</v>
       </c>
       <c r="H56">
-        <v>529.2263618090919</v>
+        <v>3985230.181727015</v>
       </c>
       <c r="I56">
-        <v>-1545.230815511427</v>
+        <v>1114889.898494517</v>
       </c>
       <c r="J56">
-        <v>1526.502967546199</v>
+        <v>4843175.68729073</v>
       </c>
       <c r="K56">
-        <v>470.1456728096401</v>
+        <v>3984667.623980551</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2408,31 +2402,31 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>310.9540060211299</v>
+        <v>1116579.146720662</v>
       </c>
       <c r="G57">
-        <v>-83.58442722020095</v>
+        <v>4841111.473234341</v>
       </c>
       <c r="H57">
-        <v>529.2263618090919</v>
+        <v>3985230.181727015</v>
       </c>
       <c r="I57">
-        <v>-1513.343089967519</v>
+        <v>1114920.241679198</v>
       </c>
       <c r="J57">
-        <v>1488.443749946074</v>
+        <v>4843127.035691803</v>
       </c>
       <c r="K57">
-        <v>916.8477273025941</v>
+        <v>3984956.270841455</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2443,31 +2437,31 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>310.9540060211299</v>
+        <v>1116579.146720662</v>
       </c>
       <c r="G58">
-        <v>-83.58442722020095</v>
+        <v>4841111.473234341</v>
       </c>
       <c r="H58">
-        <v>529.2263618090919</v>
+        <v>3985230.181727015</v>
       </c>
       <c r="I58">
-        <v>-1480.670158518261</v>
+        <v>1114951.332036887</v>
       </c>
       <c r="J58">
-        <v>1450.384532345948</v>
+        <v>4843078.384092877</v>
       </c>
       <c r="K58">
-        <v>1340.106163478865</v>
+        <v>3985229.769066333</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2478,31 +2472,31 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>310.9540060211299</v>
+        <v>1116579.146720662</v>
       </c>
       <c r="G59">
-        <v>-83.58442722020095</v>
+        <v>4841111.473234341</v>
       </c>
       <c r="H59">
-        <v>529.2263618090919</v>
+        <v>3985230.181727015</v>
       </c>
       <c r="I59">
-        <v>-1447.192686190611</v>
+        <v>1114983.187966031</v>
       </c>
       <c r="J59">
-        <v>1412.325314745823</v>
+        <v>4843029.732493951</v>
       </c>
       <c r="K59">
-        <v>1739.920981338451</v>
+        <v>3985488.118655185</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2513,31 +2507,31 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>310.9540060211299</v>
+        <v>1116579.146720662</v>
       </c>
       <c r="G60">
-        <v>-83.58442722020095</v>
+        <v>4841111.473234341</v>
       </c>
       <c r="H60">
-        <v>529.2263618090919</v>
+        <v>3985230.181727015</v>
       </c>
       <c r="I60">
-        <v>-1412.890861905602</v>
+        <v>1115015.828318124</v>
       </c>
       <c r="J60">
-        <v>1374.266097145697</v>
+        <v>4842981.080895025</v>
       </c>
       <c r="K60">
-        <v>2116.292180881354</v>
+        <v>3985731.319608013</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2548,31 +2542,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>310.9540060211299</v>
+        <v>1116579.146720662</v>
       </c>
       <c r="G61">
-        <v>-83.58442722020095</v>
+        <v>4841111.473234341</v>
       </c>
       <c r="H61">
-        <v>529.2263618090919</v>
+        <v>3985230.181727015</v>
       </c>
       <c r="I61">
-        <v>-1377.744386754674</v>
+        <v>1115049.272408858</v>
       </c>
       <c r="J61">
-        <v>1336.206879545572</v>
+        <v>4842932.429296098</v>
       </c>
       <c r="K61">
-        <v>2469.219762107572</v>
+        <v>3985959.371924814</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2583,31 +2577,31 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>310.9540060211299</v>
+        <v>1116579.146720662</v>
       </c>
       <c r="G62">
-        <v>-83.58442722020095</v>
+        <v>4841111.473234341</v>
       </c>
       <c r="H62">
-        <v>529.2263618090919</v>
+        <v>3985230.181727015</v>
       </c>
       <c r="I62">
-        <v>-1341.73246198732</v>
+        <v>1115083.540029558</v>
       </c>
       <c r="J62">
-        <v>1298.147661945446</v>
+        <v>4842883.777697172</v>
       </c>
       <c r="K62">
-        <v>2798.703725017107</v>
+        <v>3986172.27560559</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2618,31 +2612,31 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>310.9540060211299</v>
+        <v>1116579.146720662</v>
       </c>
       <c r="G63">
-        <v>-69.78228553930552</v>
+        <v>4841127.986008901</v>
       </c>
       <c r="H63">
-        <v>529.2263618090919</v>
+        <v>3985230.181727015</v>
       </c>
       <c r="I63">
-        <v>-1304.833776702932</v>
+        <v>1115118.651458893</v>
       </c>
       <c r="J63">
-        <v>1260.088444345321</v>
+        <v>4842835.126098245</v>
       </c>
       <c r="K63">
-        <v>3104.744069609956</v>
+        <v>3986370.03065034</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2653,31 +2647,31 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>241.3365834655436</v>
+        <v>1116530.466128864</v>
       </c>
       <c r="G64">
-        <v>-55.98014385841007</v>
+        <v>4841144.498783462</v>
       </c>
       <c r="H64">
-        <v>652.0033165550734</v>
+        <v>3985429.436226455</v>
       </c>
       <c r="I64">
-        <v>-1267.026495239585</v>
+        <v>1115154.627474873</v>
       </c>
       <c r="J64">
-        <v>1222.029226745195</v>
+        <v>4842786.47449932</v>
       </c>
       <c r="K64">
-        <v>3387.34079588612</v>
+        <v>3986552.637059066</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2688,31 +2682,31 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>200.439840101049</v>
+        <v>1116501.868723265</v>
       </c>
       <c r="G65">
-        <v>-42.17800217751464</v>
+        <v>4841161.011558023</v>
       </c>
       <c r="H65">
-        <v>725.1355498536248</v>
+        <v>3985548.122396583</v>
       </c>
       <c r="I65">
-        <v>-1228.288244252263</v>
+        <v>1115191.48936715</v>
       </c>
       <c r="J65">
-        <v>1183.97000914507</v>
+        <v>4842737.822900393</v>
       </c>
       <c r="K65">
-        <v>3646.493903845602</v>
+        <v>3986720.094831766</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2723,31 +2717,31 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>174.6228153524839</v>
+        <v>1116483.815942839</v>
       </c>
       <c r="G66">
-        <v>-28.37586049661921</v>
+        <v>4841177.524332584</v>
       </c>
       <c r="H66">
-        <v>777.3982141734109</v>
+        <v>3985632.939380683</v>
       </c>
       <c r="I66">
-        <v>-1188.596099472916</v>
+        <v>1115229.258949611</v>
       </c>
       <c r="J66">
-        <v>1145.910791544944</v>
+        <v>4842689.171301466</v>
       </c>
       <c r="K66">
-        <v>3882.203393488399</v>
+        <v>3986872.40396844</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2758,31 +2752,31 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>156.6181270902906</v>
+        <v>1116471.226007051</v>
       </c>
       <c r="G67">
-        <v>-14.57371881572377</v>
+        <v>4841194.037107144</v>
       </c>
       <c r="H67">
-        <v>818.0951228794856</v>
+        <v>3985698.98632076</v>
       </c>
       <c r="I67">
-        <v>-1147.926572144481</v>
+        <v>1115267.958573293</v>
       </c>
       <c r="J67">
-        <v>1107.851573944819</v>
+        <v>4842640.519702541</v>
       </c>
       <c r="K67">
-        <v>4094.469264814512</v>
+        <v>3987009.564469089</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2793,31 +2787,31 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>143.1860904677997</v>
+        <v>1116461.833537927</v>
       </c>
       <c r="G68">
-        <v>-0.7715771348283388</v>
+        <v>4841210.549881706</v>
       </c>
       <c r="H68">
-        <v>851.4290478497421</v>
+        <v>3985753.083887751</v>
       </c>
       <c r="I68">
-        <v>-1106.255595120863</v>
+        <v>1115307.611139605</v>
       </c>
       <c r="J68">
-        <v>1069.792356344693</v>
+        <v>4842591.868103615</v>
       </c>
       <c r="K68">
-        <v>4283.29151782394</v>
+        <v>3987131.576333713</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2828,31 +2822,31 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>132.6841135573167</v>
+        <v>1116454.489938692</v>
       </c>
       <c r="G69">
-        <v>13.0305645460671</v>
+        <v>4841227.062656267</v>
       </c>
       <c r="H69">
-        <v>879.660449040961</v>
+        <v>3985798.900578061</v>
       </c>
       <c r="I69">
-        <v>-1063.558508624634</v>
+        <v>1115348.240113883</v>
       </c>
       <c r="J69">
-        <v>1031.733138744568</v>
+        <v>4842543.216504687</v>
       </c>
       <c r="K69">
-        <v>4448.670152516685</v>
+        <v>3987238.439562311</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2863,31 +2857,31 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>124.1872495627235</v>
+        <v>1116448.548432205</v>
       </c>
       <c r="G70">
-        <v>26.83270622696254</v>
+        <v>4841243.575430827</v>
       </c>
       <c r="H70">
-        <v>904.1460478699211</v>
+        <v>3985838.638212442</v>
       </c>
       <c r="I70">
-        <v>-1019.810045654035</v>
+        <v>1115389.869539275</v>
       </c>
       <c r="J70">
-        <v>993.6739211444425</v>
+        <v>4842494.564905762</v>
       </c>
       <c r="K70">
-        <v>4590.605168892744</v>
+        <v>3987330.154154884</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2898,31 +2892,31 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>117.1318248449601</v>
+        <v>1116443.614864744</v>
       </c>
       <c r="G71">
-        <v>40.63484790785797</v>
+        <v>4841260.088205389</v>
       </c>
       <c r="H71">
-        <v>925.7644086953294</v>
+        <v>3985873.722611415</v>
       </c>
       <c r="I71">
-        <v>-974.9843170306328</v>
+        <v>1115432.524050968</v>
       </c>
       <c r="J71">
-        <v>955.6147035443169</v>
+        <v>4842445.913306835</v>
       </c>
       <c r="K71">
-        <v>4709.09656695212</v>
+        <v>3987406.720111431</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2933,31 +2927,31 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>111.1528832514066</v>
+        <v>1116439.434037526</v>
       </c>
       <c r="G72">
-        <v>54.43698958875342</v>
+        <v>4841276.600979949</v>
       </c>
       <c r="H72">
-        <v>945.1171918725793</v>
+        <v>3985905.13020849</v>
       </c>
       <c r="I72">
-        <v>-929.0547960787931</v>
+        <v>1115476.228890771</v>
       </c>
       <c r="J72">
-        <v>917.5554859441913</v>
+        <v>4842397.261707909</v>
       </c>
       <c r="K72">
-        <v>4804.144346694812</v>
+        <v>3987468.137431953</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2968,31 +2962,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>106.0026083762922</v>
+        <v>1116435.83266276</v>
       </c>
       <c r="G73">
-        <v>68.23913126964885</v>
+        <v>4841293.113754511</v>
       </c>
       <c r="H73">
-        <v>962.6345343057551</v>
+        <v>3985933.559072076</v>
       </c>
       <c r="I73">
-        <v>-881.9943029278988</v>
+        <v>1115521.009922046</v>
       </c>
       <c r="J73">
-        <v>879.496268344066</v>
+        <v>4842348.610108983</v>
       </c>
       <c r="K73">
-        <v>4875.748508120819</v>
+        <v>3987514.406116449</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3003,31 +2997,31 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>101.5061522866819</v>
+        <v>1116432.6884765</v>
       </c>
       <c r="G74">
-        <v>82.04127295054427</v>
+        <v>4841309.626529071</v>
       </c>
       <c r="H74">
-        <v>978.6346264506552</v>
+        <v>3985959.525592894</v>
       </c>
       <c r="I74">
-        <v>-833.7749884280239</v>
+        <v>1115566.893645018</v>
       </c>
       <c r="J74">
-        <v>841.4370507439405</v>
+        <v>4842299.958510056</v>
       </c>
       <c r="K74">
-        <v>4923.909051230142</v>
+        <v>3987545.526164921</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3038,31 +3032,31 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>97.53620654034316</v>
+        <v>1116429.912457205</v>
       </c>
       <c r="G75">
-        <v>95.84341463143973</v>
+        <v>4841326.139303632</v>
       </c>
       <c r="H75">
-        <v>993.359476677688</v>
+        <v>3985983.422525892</v>
       </c>
       <c r="I75">
-        <v>-784.3683176695451</v>
+        <v>1115613.907212456</v>
       </c>
       <c r="J75">
-        <v>803.3778331438151</v>
+        <v>4842251.30691113</v>
       </c>
       <c r="K75">
-        <v>4948.625976022781</v>
+        <v>3987561.497577366</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3073,31 +3067,31 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>93.99760761202138</v>
+        <v>1116427.438060945</v>
       </c>
       <c r="G76">
-        <v>109.6455563123352</v>
+        <v>4841342.652078194</v>
       </c>
       <c r="H76">
-        <v>1006.997443653311</v>
+        <v>3986005.555558013</v>
       </c>
       <c r="I76">
-        <v>-733.7450530969425</v>
+        <v>1115662.078445741</v>
       </c>
       <c r="J76">
-        <v>765.3186155436896</v>
+        <v>4842202.655312204</v>
       </c>
       <c r="K76">
-        <v>4949.899282498735</v>
+        <v>3987562.320353786</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3108,31 +3102,31 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>90.81761762753655</v>
+        <v>1116425.214425127</v>
       </c>
       <c r="G77">
-        <v>123.4476979932306</v>
+        <v>4841359.164852755</v>
       </c>
       <c r="H77">
-        <v>1019.6980087518</v>
+        <v>3986026.167282311</v>
       </c>
       <c r="I77">
-        <v>-681.8752372067892</v>
+        <v>1115711.435851329</v>
       </c>
       <c r="J77">
-        <v>727.2593979435641</v>
+        <v>4842154.003713277</v>
       </c>
       <c r="K77">
-        <v>4927.728970658006</v>
+        <v>3987547.99449418</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3143,31 +3137,31 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>87.9395663089761</v>
+        <v>1116423.201922563</v>
       </c>
       <c r="G78">
-        <v>137.249839674126</v>
+        <v>4841375.677627315</v>
       </c>
       <c r="H78">
-        <v>1031.581789829536</v>
+        <v>3986045.453449287</v>
       </c>
       <c r="I78">
-        <v>-628.7281748196959</v>
+        <v>1115762.008637621</v>
       </c>
       <c r="J78">
-        <v>689.2001803434387</v>
+        <v>4842105.352114351</v>
       </c>
       <c r="K78">
-        <v>4882.115040500592</v>
+        <v>3987518.519998549</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3178,31 +3172,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>85.31856318938931</v>
+        <v>1116421.3691632</v>
       </c>
       <c r="G79">
-        <v>151.0519813550215</v>
+        <v>4841392.190401876</v>
       </c>
       <c r="H79">
-        <v>1042.747525025853</v>
+        <v>3986063.574300892</v>
       </c>
       <c r="I79">
-        <v>-574.2724149157216</v>
+        <v>1115813.826732249</v>
       </c>
       <c r="J79">
-        <v>651.1409627433131</v>
+        <v>4842056.700515425</v>
       </c>
       <c r="K79">
-        <v>4813.057492026493</v>
+        <v>3987473.896866893</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3213,31 +3207,31 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>82.91852873385535</v>
+        <v>1116419.69091811</v>
       </c>
       <c r="G80">
-        <v>164.8541230359169</v>
+        <v>4841408.703176437</v>
       </c>
       <c r="H80">
-        <v>1053.277064263256</v>
+        <v>3986080.662671217</v>
       </c>
       <c r="I80">
-        <v>-518.4757320224925</v>
+        <v>1115866.920799786</v>
       </c>
       <c r="J80">
-        <v>613.0817451431876</v>
+        <v>4842008.048916498</v>
       </c>
       <c r="K80">
-        <v>4720.556325235711</v>
+        <v>3987414.125099212</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3248,31 +3242,31 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>80.71009072325985</v>
+        <v>1116418.14664851</v>
       </c>
       <c r="G81">
-        <v>178.6562647168123</v>
+        <v>4841425.215950998</v>
       </c>
       <c r="H81">
-        <v>1063.23901381302</v>
+        <v>3986096.829901257</v>
       </c>
       <c r="I81">
-        <v>-461.3051071450249</v>
+        <v>1115921.322259891</v>
       </c>
       <c r="J81">
-        <v>575.0225275430622</v>
+        <v>4841959.397317572</v>
       </c>
       <c r="K81">
-        <v>4604.611540128245</v>
+        <v>3987339.204695505</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3283,31 +3277,31 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>78.66906310201477</v>
+        <v>1116416.719442089</v>
       </c>
       <c r="G82">
-        <v>192.4584063977078</v>
+        <v>4841441.728725559</v>
       </c>
       <c r="H82">
-        <v>1072.69144783951</v>
+        <v>3986112.170239469</v>
       </c>
       <c r="I82">
-        <v>-402.7267082259595</v>
+        <v>1115977.063305902</v>
       </c>
       <c r="J82">
-        <v>536.9633099429367</v>
+        <v>4841910.745718646</v>
       </c>
       <c r="K82">
-        <v>4465.223136704094</v>
+        <v>3987249.135655773</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3318,31 +3312,31 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>76.7753259571929</v>
+        <v>1116415.395229822</v>
       </c>
       <c r="G83">
-        <v>206.2605480786032</v>
+        <v>4841458.24150012</v>
       </c>
       <c r="H83">
-        <v>1081.683959643973</v>
+        <v>3986126.764170732</v>
       </c>
       <c r="I83">
-        <v>-342.7058701246511</v>
+        <v>1116034.17692389</v>
       </c>
       <c r="J83">
-        <v>498.9040923428111</v>
+        <v>4841862.09411972</v>
       </c>
       <c r="K83">
-        <v>4302.391114963258</v>
+        <v>3987143.917980015</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3353,31 +3347,31 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>75.01198741476082</v>
+        <v>1116414.162199919</v>
       </c>
       <c r="G84">
-        <v>220.0626897594987</v>
+        <v>4841474.754274681</v>
       </c>
       <c r="H84">
-        <v>1090.259236631159</v>
+        <v>3986140.68097236</v>
       </c>
       <c r="I84">
-        <v>-281.2070741032567</v>
+        <v>1116092.696912178</v>
       </c>
       <c r="J84">
-        <v>460.8448747426858</v>
+        <v>4841813.442520793</v>
       </c>
       <c r="K84">
-        <v>4116.11547490574</v>
+        <v>3987023.551668231</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3388,31 +3382,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>73.3647473079985</v>
+        <v>1116413.010352863</v>
       </c>
       <c r="G85">
-        <v>233.8648314403941</v>
+        <v>4841491.267049243</v>
       </c>
       <c r="H85">
-        <v>1098.454285834286</v>
+        <v>3986153.980703</v>
       </c>
       <c r="I85">
-        <v>-218.1939268076904</v>
+        <v>1116152.65790134</v>
       </c>
       <c r="J85">
-        <v>422.7856571425602</v>
+        <v>4841764.790921867</v>
       </c>
       <c r="K85">
-        <v>3906.396216531535</v>
+        <v>3986888.036720423</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3423,31 +3417,31 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>71.82140764690422</v>
+        <v>1116411.931159102</v>
       </c>
       <c r="G86">
-        <v>247.6669731212895</v>
+        <v>4841507.779823802</v>
       </c>
       <c r="H86">
-        <v>1106.301399096352</v>
+        <v>3986166.715769025</v>
       </c>
       <c r="I86">
-        <v>-153.6291387310029</v>
+        <v>1116214.095374697</v>
       </c>
       <c r="J86">
-        <v>384.7264395424348</v>
+        <v>4841716.139322941</v>
       </c>
       <c r="K86">
-        <v>3673.233339840649</v>
+        <v>3986737.373136588</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3458,31 +3452,31 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>70.37149149436705</v>
+        <v>1116410.917292547</v>
       </c>
       <c r="G87">
-        <v>261.4691148021849</v>
+        <v>4841524.292598364</v>
       </c>
       <c r="H87">
-        <v>1113.828921578907</v>
+        <v>3986178.932171748</v>
       </c>
       <c r="I87">
-        <v>-87.47450214644282</v>
+        <v>1116277.045689314</v>
       </c>
       <c r="J87">
-        <v>346.6672219423093</v>
+        <v>4841667.487724015</v>
       </c>
       <c r="K87">
-        <v>3416.626844833076</v>
+        <v>3986571.560916729</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3493,31 +3487,31 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>69.00594298802851</v>
+        <v>1116409.962420807</v>
       </c>
       <c r="G88">
-        <v>275.2712564830804</v>
+        <v>4841540.805372925</v>
       </c>
       <c r="H88">
-        <v>1121.061869811583</v>
+        <v>3986190.670510449</v>
       </c>
       <c r="I88">
-        <v>-19.6908684971379</v>
+        <v>1116341.546097515</v>
       </c>
       <c r="J88">
-        <v>308.6080043421838</v>
+        <v>4841618.836125088</v>
       </c>
       <c r="K88">
-        <v>3136.576731508819</v>
+        <v>3986390.600060843</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3528,31 +3522,31 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>67.71688885889539</v>
+        <v>1116409.06103843</v>
       </c>
       <c r="G89">
-        <v>289.0733981639759</v>
+        <v>4841557.318147486</v>
       </c>
       <c r="H89">
-        <v>1128.022433302885</v>
+        <v>3986201.966796443</v>
       </c>
       <c r="I89">
-        <v>49.76187477098184</v>
+        <v>1116407.634768928</v>
       </c>
       <c r="J89">
-        <v>270.5487867420584</v>
+        <v>4841570.184526162</v>
       </c>
       <c r="K89">
-        <v>2833.082999867879</v>
+        <v>3986194.490568933</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3563,31 +3557,31 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>66.49744708837625</v>
+        <v>1116408.208333103</v>
       </c>
       <c r="G90">
-        <v>302.8755398448712</v>
+        <v>4841573.830922047</v>
       </c>
       <c r="H90">
-        <v>1134.730385083219</v>
+        <v>3986212.853119345</v>
       </c>
       <c r="I90">
-        <v>120.9248279467267</v>
+        <v>1116475.350813075</v>
       </c>
       <c r="J90">
-        <v>232.4895691419329</v>
+        <v>4841521.532927236</v>
       </c>
       <c r="K90">
-        <v>2506.145649910255</v>
+        <v>3985983.232440997</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3598,31 +3592,31 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>65.34157207806778</v>
+        <v>1116407.400077389</v>
       </c>
       <c r="G91">
-        <v>316.6776815257667</v>
+        <v>4841590.343696607</v>
       </c>
       <c r="H91">
-        <v>1141.20342032705</v>
+        <v>3986223.358196622</v>
       </c>
       <c r="I91">
-        <v>193.8401033757085</v>
+        <v>1116544.734302512</v>
       </c>
       <c r="J91">
-        <v>194.4303515418075</v>
+        <v>4841472.88132831</v>
       </c>
       <c r="K91">
-        <v>2155.764681635947</v>
+        <v>3985756.825677036</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3633,31 +3627,31 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>64.24392837675457</v>
+        <v>1116406.632540428</v>
       </c>
       <c r="G92">
-        <v>330.4798232066622</v>
+        <v>4841606.856471169</v>
       </c>
       <c r="H92">
-        <v>1147.457437663102</v>
+        <v>3986233.507830129</v>
       </c>
       <c r="I92">
-        <v>268.5508503813049</v>
+        <v>1116615.826296544</v>
       </c>
       <c r="J92">
-        <v>156.371133941682</v>
+        <v>4841424.229729382</v>
       </c>
       <c r="K92">
-        <v>1781.940095044952</v>
+        <v>3985515.270277049</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3668,31 +3662,31 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>63.19978694366081</v>
+        <v>1116405.902415396</v>
       </c>
       <c r="G93">
-        <v>344.2819648875576</v>
+        <v>4841623.36924573</v>
       </c>
       <c r="H93">
-        <v>1153.50677443258</v>
+        <v>3986243.325287912</v>
       </c>
       <c r="I93">
-        <v>345.1012807992878</v>
+        <v>1116688.668865526</v>
       </c>
       <c r="J93">
-        <v>118.3119163415564</v>
+        <v>4841375.578130457</v>
       </c>
       <c r="K93">
-        <v>1384.671890137275</v>
+        <v>3985258.566241037</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3703,31 +3697,31 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>62.20493934530251</v>
+        <v>1116405.206759509</v>
       </c>
       <c r="G94">
-        <v>358.084106568453</v>
+        <v>4841639.88202029</v>
       </c>
       <c r="H94">
-        <v>1159.364404656075</v>
+        <v>3986252.831625485</v>
       </c>
       <c r="I94">
-        <v>423.5366951412076</v>
+        <v>1116763.305115754</v>
       </c>
       <c r="J94">
-        <v>80.25269874143106</v>
+        <v>4841326.926531531</v>
       </c>
       <c r="K94">
-        <v>963.9600669129138</v>
+        <v>3984986.713568999</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3738,31 +3732,31 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>61.25562633459301</v>
+        <v>1116404.542944081</v>
       </c>
       <c r="G95">
-        <v>371.8862482493484</v>
+        <v>4841656.394794852</v>
       </c>
       <c r="H95">
-        <v>1165.042106585091</v>
+        <v>3986262.045957753</v>
       </c>
       <c r="I95">
-        <v>503.903509402041</v>
+        <v>1116839.779214981</v>
       </c>
       <c r="J95">
-        <v>42.19348114130552</v>
+        <v>4841278.274932604</v>
       </c>
       <c r="K95">
-        <v>519.8046253718674</v>
+        <v>3984699.712260936</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3773,31 +3767,31 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>60.3484780481129</v>
+        <v>1116403.908612705</v>
       </c>
       <c r="G96">
-        <v>385.6883899302439</v>
+        <v>4841672.907569413</v>
       </c>
       <c r="H96">
-        <v>1170.550605278991</v>
+        <v>3986270.985690394</v>
       </c>
       <c r="I96">
-        <v>586.2492825279332</v>
+        <v>1116918.136418547</v>
       </c>
       <c r="J96">
-        <v>4.134263541179974</v>
+        <v>4841229.623333678</v>
       </c>
       <c r="K96">
-        <v>52.20556551413689</v>
+        <v>3984397.562316847</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3808,31 +3802,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>59.48046365266041</v>
+        <v>1116403.301646044</v>
       </c>
       <c r="G97">
-        <v>399.4905316111393</v>
+        <v>4841689.420343973</v>
       </c>
       <c r="H97">
-        <v>1175.899694545492</v>
+        <v>3986279.666717762</v>
       </c>
       <c r="I97">
-        <v>670.6227445603278</v>
+        <v>1116998.423096162</v>
       </c>
       <c r="J97">
-        <v>-33.92495405894539</v>
+        <v>4841180.971734752</v>
       </c>
       <c r="K97">
-        <v>-438.8371126602764</v>
+        <v>3984080.263736733</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3843,31 +3837,31 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>58.64884872622969</v>
+        <v>1116402.720132031</v>
       </c>
       <c r="G98">
-        <v>413.2926732920347</v>
+        <v>4841705.933118534</v>
       </c>
       <c r="H98">
-        <v>1181.098341728377</v>
+        <v>3986288.103592942</v>
       </c>
       <c r="I98">
-        <v>757.0738254731086</v>
+        <v>1117080.686759352</v>
       </c>
       <c r="J98">
-        <v>-71.98417165907092</v>
+        <v>4841132.320135825</v>
       </c>
       <c r="K98">
-        <v>-953.3234091513754</v>
+        <v>3983747.816520594</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3878,31 +3872,31 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>57.85115900782069</v>
+        <v>1116402.162340517</v>
       </c>
       <c r="G99">
-        <v>427.0948149729302</v>
+        <v>4841722.445893095</v>
       </c>
       <c r="H99">
-        <v>1186.154778158735</v>
+        <v>3986296.309674547</v>
       </c>
       <c r="I99">
-        <v>845.6536847198313</v>
+        <v>1117164.976089566</v>
       </c>
       <c r="J99">
-        <v>-110.0433892591965</v>
+        <v>4841083.668536899</v>
       </c>
       <c r="K99">
-        <v>-1491.25332395916</v>
+        <v>3983400.220668429</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3913,31 +3907,31 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>57.08514942128135</v>
+        <v>1116401.626701612</v>
       </c>
       <c r="G100">
-        <v>440.8969566538256</v>
+        <v>4841738.958667656</v>
       </c>
       <c r="H100">
-        <v>1191.076577560899</v>
+        <v>3986304.297253961</v>
       </c>
       <c r="I100">
-        <v>936.4147415085281</v>
+        <v>1117251.340966993</v>
       </c>
       <c r="J100">
-        <v>-148.102606859322</v>
+        <v>4841035.016937972</v>
       </c>
       <c r="K100">
-        <v>-2052.626857083627</v>
+        <v>3983037.476180239</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3948,31 +3942,31 @@
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>56.34877748989094</v>
+        <v>1116401.111787097</v>
       </c>
       <c r="G101">
-        <v>454.699098334721</v>
+        <v>4841755.471442217</v>
       </c>
       <c r="H101">
-        <v>1195.870724288114</v>
+        <v>3986312.077666077</v>
       </c>
       <c r="I101">
-        <v>1029.410705822005</v>
+        <v>1117339.832500072</v>
       </c>
       <c r="J101">
-        <v>-186.1618244594472</v>
+        <v>4840986.365339046</v>
       </c>
       <c r="K101">
-        <v>-2637.444008524775</v>
+        <v>3982659.583056023</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3983,31 +3977,31 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>55.64018042477016</v>
+        <v>1116400.616294399</v>
       </c>
       <c r="G102">
-        <v>468.5012400156165</v>
+        <v>4841771.984216778</v>
       </c>
       <c r="H102">
-        <v>1200.543672931067</v>
+        <v>3986319.661386041</v>
       </c>
       <c r="I102">
-        <v>1124.696610201984</v>
+        <v>1117430.503055742</v>
       </c>
       <c r="J102">
-        <v>-224.2210420595727</v>
+        <v>4840937.713740121</v>
       </c>
       <c r="K102">
-        <v>-3245.704778282611</v>
+        <v>3982266.541295782</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4018,31 +4012,31 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>54.95765530193421</v>
+        <v>1116400.139032736</v>
       </c>
       <c r="G103">
-        <v>482.303381696512</v>
+        <v>4841788.496991339</v>
       </c>
       <c r="H103">
-        <v>1205.101400575927</v>
+        <v>3986327.058114054</v>
       </c>
       <c r="I103">
-        <v>1222.328842315894</v>
+        <v>1117523.40629043</v>
       </c>
       <c r="J103">
-        <v>-262.2802596596983</v>
+        <v>4840889.062141193</v>
       </c>
       <c r="K103">
-        <v>-3877.409166357132</v>
+        <v>3981858.350899516</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4053,31 +4047,31 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>54.29964184776595</v>
+        <v>1116399.678911071</v>
       </c>
       <c r="G104">
-        <v>496.1055233774073</v>
+        <v>4841805.009765901</v>
       </c>
       <c r="H104">
-        <v>1209.549452773477</v>
+        <v>3986334.27684998</v>
       </c>
       <c r="I104">
-        <v>1322.365178325603</v>
+        <v>1117618.597181803</v>
       </c>
       <c r="J104">
-        <v>-300.3394772598238</v>
+        <v>4840840.410542267</v>
       </c>
       <c r="K104">
-        <v>-4532.557172748337</v>
+        <v>3981435.011867224</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4088,31 +4082,31 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>53.66470743681508</v>
+        <v>1116399.234927629</v>
       </c>
       <c r="G105">
-        <v>509.9076650583028</v>
+        <v>4841821.52254046</v>
       </c>
       <c r="H105">
-        <v>1213.892984106226</v>
+        <v>3986341.325959182</v>
       </c>
       <c r="I105">
-        <v>1424.864817077811</v>
+        <v>1117716.132061301</v>
       </c>
       <c r="J105">
-        <v>-338.3986948599494</v>
+        <v>4840791.758943342</v>
       </c>
       <c r="K105">
-        <v>-5211.148797456225</v>
+        <v>3980996.524198906</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4123,31 +4117,31 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>53.05153397363123</v>
+        <v>1116398.806160721</v>
       </c>
       <c r="G106">
-        <v>523.7098067391983</v>
+        <v>4841838.035315022</v>
       </c>
       <c r="H106">
-        <v>1218.136794097801</v>
+        <v>3986348.213230798</v>
       </c>
       <c r="I106">
-        <v>1529.88841513635</v>
+        <v>1117816.068647478</v>
       </c>
       <c r="J106">
-        <v>-376.4579124600746</v>
+        <v>4840743.107344415</v>
       </c>
       <c r="K106">
-        <v>-5913.184040480794</v>
+        <v>3980542.887894563</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4158,31 +4152,31 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>52.45890638529104</v>
+        <v>1116398.391760694</v>
       </c>
       <c r="G107">
-        <v>537.5119484200936</v>
+        <v>4841854.548089583</v>
       </c>
       <c r="H107">
-        <v>1222.285359091993</v>
+        <v>3986354.94592948</v>
       </c>
       <c r="I107">
-        <v>1637.498122677145</v>
+        <v>1117918.466080148</v>
       </c>
       <c r="J107">
-        <v>-414.5171300602001</v>
+        <v>4840694.455745488</v>
       </c>
       <c r="K107">
-        <v>-6638.662901822051</v>
+        <v>3980074.102954195</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4193,31 +4187,31 @@
         <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>275.7130617202176</v>
+        <v>1116576.0880614</v>
       </c>
       <c r="G108">
-        <v>-153.4220926486364</v>
+        <v>4841128.270267738</v>
       </c>
       <c r="H108">
-        <v>844.5600068945879</v>
+        <v>3985234.111591087</v>
       </c>
       <c r="I108">
-        <v>-1565.158933327362</v>
+        <v>1114859.571674003</v>
       </c>
       <c r="J108">
-        <v>1827.999405661959</v>
+        <v>4843224.874929103</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984364.377674624</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4228,31 +4222,31 @@
         <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>275.7130617202176</v>
+        <v>1116576.0880614</v>
       </c>
       <c r="G109">
-        <v>-153.4220926486364</v>
+        <v>4841128.270267738</v>
       </c>
       <c r="H109">
-        <v>844.5600068945879</v>
+        <v>3985234.111591087</v>
       </c>
       <c r="I109">
-        <v>-1534.258528376382</v>
+        <v>1114889.185623032</v>
       </c>
       <c r="J109">
-        <v>1783.531868472645</v>
+        <v>4843176.223324792</v>
       </c>
       <c r="K109">
-        <v>320.4645599295356</v>
+        <v>3984668.173213426</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4263,31 +4257,31 @@
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>275.7130617202176</v>
+        <v>1116576.0880614</v>
       </c>
       <c r="G110">
-        <v>-153.4220926486364</v>
+        <v>4841128.270267738</v>
       </c>
       <c r="H110">
-        <v>844.5600068945879</v>
+        <v>3985234.111591087</v>
       </c>
       <c r="I110">
-        <v>-1502.597229381335</v>
+        <v>1114919.528788312</v>
       </c>
       <c r="J110">
-        <v>1739.064331283331</v>
+        <v>4843127.571720481</v>
       </c>
       <c r="K110">
-        <v>624.9492879441772</v>
+        <v>3984956.820114116</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4298,31 +4292,31 @@
         <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>275.7130617202176</v>
+        <v>1116576.0880614</v>
       </c>
       <c r="G111">
-        <v>-153.4220926486364</v>
+        <v>4841128.270267738</v>
       </c>
       <c r="H111">
-        <v>844.5600068945879</v>
+        <v>3985234.111591087</v>
       </c>
       <c r="I111">
-        <v>-1470.156300026396</v>
+        <v>1114950.619126121</v>
       </c>
       <c r="J111">
-        <v>1694.596794094017</v>
+        <v>4843078.920116169</v>
       </c>
       <c r="K111">
-        <v>913.4541840439269</v>
+        <v>3985230.318376692</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4333,31 +4327,31 @@
         <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>275.7130617202176</v>
+        <v>1116576.0880614</v>
       </c>
       <c r="G112">
-        <v>-153.4220926486364</v>
+        <v>4841128.270267738</v>
       </c>
       <c r="H112">
-        <v>844.5600068945879</v>
+        <v>3985234.111591087</v>
       </c>
       <c r="I112">
-        <v>-1436.9165426312</v>
+        <v>1114982.475034896</v>
       </c>
       <c r="J112">
-        <v>1650.129256904703</v>
+        <v>4843030.268511859</v>
       </c>
       <c r="K112">
-        <v>1185.979248228783</v>
+        <v>3985488.668001154</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4368,31 +4362,31 @@
         <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>275.7130617202176</v>
+        <v>1116576.0880614</v>
       </c>
       <c r="G113">
-        <v>-153.4220926486364</v>
+        <v>4841128.270267738</v>
       </c>
       <c r="H113">
-        <v>844.5600068945879</v>
+        <v>3985234.111591087</v>
       </c>
       <c r="I113">
-        <v>-1402.858286790162</v>
+        <v>1115015.115366118</v>
       </c>
       <c r="J113">
-        <v>1605.661719715389</v>
+        <v>4842981.616907548</v>
       </c>
       <c r="K113">
-        <v>1442.524480498748</v>
+        <v>3985731.868987503</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4403,31 +4397,31 @@
         <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>275.7130617202176</v>
+        <v>1116576.0880614</v>
       </c>
       <c r="G114">
-        <v>-153.4220926486364</v>
+        <v>4841128.270267738</v>
       </c>
       <c r="H114">
-        <v>844.5600068945879</v>
+        <v>3985234.111591087</v>
       </c>
       <c r="I114">
-        <v>-1367.96137773206</v>
+        <v>1115048.559435468</v>
       </c>
       <c r="J114">
-        <v>1561.194182526075</v>
+        <v>4842932.965303237</v>
       </c>
       <c r="K114">
-        <v>1683.089880853819</v>
+        <v>3985959.921335739</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4438,31 +4432,31 @@
         <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>275.7130617202176</v>
+        <v>1116576.0880614</v>
       </c>
       <c r="G115">
-        <v>-153.4220926486364</v>
+        <v>4841128.270267738</v>
       </c>
       <c r="H115">
-        <v>844.5600068945879</v>
+        <v>3985234.111591087</v>
       </c>
       <c r="I115">
-        <v>-1332.20516439297</v>
+        <v>1115082.827034258</v>
       </c>
       <c r="J115">
-        <v>1516.726645336761</v>
+        <v>4842884.313698926</v>
       </c>
       <c r="K115">
-        <v>1907.675449293998</v>
+        <v>3986172.825045861</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4473,31 +4467,31 @@
         <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>275.7130617202176</v>
+        <v>1116576.0880614</v>
       </c>
       <c r="G116">
-        <v>-128.0877866045534</v>
+        <v>4841144.783099593</v>
       </c>
       <c r="H116">
-        <v>844.5600068945879</v>
+        <v>3985234.111591087</v>
       </c>
       <c r="I116">
-        <v>-1295.568487195519</v>
+        <v>1115117.938441142</v>
       </c>
       <c r="J116">
-        <v>1472.259108147447</v>
+        <v>4842835.662094615</v>
       </c>
       <c r="K116">
-        <v>2116.281185819283</v>
+        <v>3986370.58011787</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4508,31 +4502,31 @@
         <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>213.9854996042739</v>
+        <v>1116527.407602953</v>
       </c>
       <c r="G117">
-        <v>-102.7534805604705</v>
+        <v>4841161.295931447</v>
       </c>
       <c r="H117">
-        <v>1040.492245402706</v>
+        <v>3985433.366287014</v>
       </c>
       <c r="I117">
-        <v>-1258.029665527204</v>
+        <v>1115153.914434118</v>
       </c>
       <c r="J117">
-        <v>1427.791570958133</v>
+        <v>4842787.010490305</v>
       </c>
       <c r="K117">
-        <v>2308.907090429675</v>
+        <v>3986553.186551765</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4543,31 +4537,31 @@
         <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>177.7236534499439</v>
+        <v>1116498.810275692</v>
       </c>
       <c r="G118">
-        <v>-77.41917451638763</v>
+        <v>4841177.808763302</v>
       </c>
       <c r="H118">
-        <v>1157.199507013233</v>
+        <v>3985552.052574179</v>
       </c>
       <c r="I118">
-        <v>-1219.56648491039</v>
+        <v>1115190.776302825</v>
       </c>
       <c r="J118">
-        <v>1383.324033768819</v>
+        <v>4842738.358885993</v>
       </c>
       <c r="K118">
-        <v>2485.553163125176</v>
+        <v>3986720.644347547</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4578,31 +4572,31 @@
         <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>154.8325158536982</v>
+        <v>1116480.757544718</v>
       </c>
       <c r="G119">
-        <v>-52.08486847230471</v>
+        <v>4841194.321595157</v>
       </c>
       <c r="H119">
-        <v>1240.602298944014</v>
+        <v>3985636.869641917</v>
       </c>
       <c r="I119">
-        <v>-1180.156183856364</v>
+        <v>1115228.545861136</v>
       </c>
       <c r="J119">
-        <v>1338.856496579505</v>
+        <v>4842689.707281682</v>
       </c>
       <c r="K119">
-        <v>2646.219403905784</v>
+        <v>3986872.953505214</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4613,31 +4607,31 @@
         <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>138.8683294146592</v>
+        <v>1116468.167643417</v>
       </c>
       <c r="G120">
-        <v>-26.75056242822179</v>
+        <v>4841210.834427011</v>
       </c>
       <c r="H120">
-        <v>1305.548008337436</v>
+        <v>3985702.916647124</v>
       </c>
       <c r="I120">
-        <v>-1139.775440395695</v>
+        <v>1115267.245460073</v>
       </c>
       <c r="J120">
-        <v>1294.388959390191</v>
+        <v>4842641.055677371</v>
       </c>
       <c r="K120">
-        <v>2790.905812771499</v>
+        <v>3987010.11402477</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4648,31 +4642,31 @@
         <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>126.9585682582989</v>
+        <v>1116458.775200022</v>
       </c>
       <c r="G121">
-        <v>-1.416256384138899</v>
+        <v>4841227.347258867</v>
       </c>
       <c r="H121">
-        <v>1358.743581979058</v>
+        <v>3985757.01426746</v>
       </c>
       <c r="I121">
-        <v>-1098.400358276911</v>
+        <v>1115306.898001031</v>
       </c>
       <c r="J121">
-        <v>1249.921422200877</v>
+        <v>4842592.40407306</v>
       </c>
       <c r="K121">
-        <v>2919.612389722321</v>
+        <v>3987132.125906211</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4683,31 +4677,31 @@
         <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>117.6467981828636</v>
+        <v>1116451.431620904</v>
       </c>
       <c r="G122">
-        <v>23.91804965994402</v>
+        <v>4841243.86009072</v>
       </c>
       <c r="H122">
-        <v>1403.796349764841</v>
+        <v>3985802.831002951</v>
       </c>
       <c r="I122">
-        <v>-1056.006452825328</v>
+        <v>1115347.52694933</v>
       </c>
       <c r="J122">
-        <v>1205.453885011563</v>
+        <v>4842543.752468749</v>
       </c>
       <c r="K122">
-        <v>3032.33913475825</v>
+        <v>3987238.989149539</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4718,31 +4712,31 @@
         <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>110.1128981796252</v>
+        <v>1116445.490130693</v>
       </c>
       <c r="G123">
-        <v>49.25235570402693</v>
+        <v>4841260.372922576</v>
       </c>
       <c r="H123">
-        <v>1442.871420487158</v>
+        <v>3985842.568676518</v>
       </c>
       <c r="I123">
-        <v>-1012.568636453678</v>
+        <v>1115389.156348104</v>
       </c>
       <c r="J123">
-        <v>1160.986347822249</v>
+        <v>4842495.100864438</v>
       </c>
       <c r="K123">
-        <v>3129.086047879286</v>
+        <v>3987330.703754752</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4753,31 +4747,31 @@
         <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>103.8570766979787</v>
+        <v>1116440.556576746</v>
       </c>
       <c r="G124">
-        <v>74.58666174810983</v>
+        <v>4841276.885754431</v>
       </c>
       <c r="H124">
-        <v>1477.370841312197</v>
+        <v>3985877.653110087</v>
       </c>
       <c r="I124">
-        <v>-968.0612038159344</v>
+        <v>1115431.810832524</v>
       </c>
       <c r="J124">
-        <v>1116.518810632935</v>
+        <v>4842446.449260128</v>
       </c>
       <c r="K124">
-        <v>3209.85312908543</v>
+        <v>3987407.269721854</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4788,31 +4782,31 @@
         <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>98.55573868436588</v>
+        <v>1116436.37576098</v>
       </c>
       <c r="G125">
-        <v>99.92096779219277</v>
+        <v>4841293.398586285</v>
       </c>
       <c r="H125">
-        <v>1508.254765230378</v>
+        <v>3985909.060738134</v>
       </c>
       <c r="I125">
-        <v>-922.4578165955735</v>
+        <v>1115475.515644381</v>
       </c>
       <c r="J125">
-        <v>1072.051273443621</v>
+        <v>4842397.797655817</v>
       </c>
       <c r="K125">
-        <v>3274.640378376681</v>
+        <v>3987468.687050841</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4823,31 +4817,31 @@
         <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>93.98915318611694</v>
+        <v>1116432.77439608</v>
       </c>
       <c r="G126">
-        <v>125.2552738362757</v>
+        <v>4841309.91141814</v>
       </c>
       <c r="H126">
-        <v>1536.20962143891</v>
+        <v>3985937.489629754</v>
       </c>
       <c r="I126">
-        <v>-875.731487919258</v>
+        <v>1115520.296647022</v>
       </c>
       <c r="J126">
-        <v>1027.583736254307</v>
+        <v>4842349.146051506</v>
       </c>
       <c r="K126">
-        <v>3323.447795753039</v>
+        <v>3987514.955741715</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4858,31 +4852,31 @@
         <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>90.00228808275267</v>
+        <v>1116429.630218433</v>
       </c>
       <c r="G127">
-        <v>150.5895798803585</v>
+        <v>4841326.424249995</v>
       </c>
       <c r="H127">
-        <v>1561.743190639844</v>
+        <v>3985963.456176178</v>
       </c>
       <c r="I127">
-        <v>-827.8545663867228</v>
+        <v>1115566.180340656</v>
       </c>
       <c r="J127">
-        <v>983.1161990649931</v>
+        <v>4842300.494447194</v>
       </c>
       <c r="K127">
-        <v>3356.275381214505</v>
+        <v>3987546.075794476</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4893,31 +4887,31 @@
         <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>86.48226301347655</v>
+        <v>1116426.854206742</v>
       </c>
       <c r="G128">
-        <v>175.9238859244415</v>
+        <v>4841342.937081849</v>
       </c>
       <c r="H128">
-        <v>1585.241679201059</v>
+        <v>3985987.353132741</v>
       </c>
       <c r="I128">
-        <v>-778.7987197074087</v>
+        <v>1115613.193878033</v>
       </c>
       <c r="J128">
-        <v>938.6486618756792</v>
+        <v>4842251.842842883</v>
       </c>
       <c r="K128">
-        <v>3373.123134761077</v>
+        <v>3987562.047209123</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4928,31 +4922,31 @@
         <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>83.34469949657115</v>
+        <v>1116424.379817261</v>
       </c>
       <c r="G129">
-        <v>201.2581919685244</v>
+        <v>4841359.449913704</v>
       </c>
       <c r="H129">
-        <v>1607.005677206728</v>
+        <v>3986009.486186687</v>
       </c>
       <c r="I129">
-        <v>-728.534917934168</v>
+        <v>1115661.365080517</v>
       </c>
       <c r="J129">
-        <v>894.1811246863651</v>
+        <v>4842203.191238573</v>
       </c>
       <c r="K129">
-        <v>3373.991056392757</v>
+        <v>3987562.869985656</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4963,31 +4957,31 @@
         <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>80.52510316436515</v>
+        <v>1116422.156187534</v>
       </c>
       <c r="G130">
-        <v>226.5924980126073</v>
+        <v>4841375.962745559</v>
       </c>
       <c r="H130">
-        <v>1627.273732846432</v>
+        <v>3986030.09793131</v>
       </c>
       <c r="I130">
-        <v>-677.033416284111</v>
+        <v>1115710.722454545</v>
       </c>
       <c r="J130">
-        <v>849.7135874970511</v>
+        <v>4842154.539634261</v>
       </c>
       <c r="K130">
-        <v>3358.879146109544</v>
+        <v>3987548.544124076</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4998,31 +4992,31 @@
         <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>77.973226277549</v>
+        <v>1116420.143690482</v>
       </c>
       <c r="G131">
-        <v>251.9268040566902</v>
+        <v>4841392.475577413</v>
       </c>
       <c r="H131">
-        <v>1646.238332785555</v>
+        <v>3986049.384117305</v>
       </c>
       <c r="I131">
-        <v>-624.2637375364337</v>
+        <v>1115761.2952085</v>
       </c>
       <c r="J131">
-        <v>805.2460503077373</v>
+        <v>4842105.888029951</v>
       </c>
       <c r="K131">
-        <v>3327.787403911439</v>
+        <v>3987519.069624383</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5033,31 +5027,31 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>75.64926588184208</v>
+        <v>1116418.310936141</v>
       </c>
       <c r="G132">
-        <v>277.2611101007732</v>
+        <v>4841408.988409269</v>
       </c>
       <c r="H132">
-        <v>1664.057047186229</v>
+        <v>3986067.504986779</v>
       </c>
       <c r="I132">
-        <v>-570.1946539968094</v>
+        <v>1115813.113269996</v>
       </c>
       <c r="J132">
-        <v>760.7785131184232</v>
+        <v>4842057.23642564</v>
       </c>
       <c r="K132">
-        <v>3280.715829798441</v>
+        <v>3987474.446486576</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5068,31 +5062,31 @@
         <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>73.52123139713981</v>
+        <v>1116416.632695647</v>
       </c>
       <c r="G133">
-        <v>302.595416144856</v>
+        <v>4841425.501241122</v>
       </c>
       <c r="H133">
-        <v>1680.860495337487</v>
+        <v>3986084.593373954</v>
       </c>
       <c r="I133">
-        <v>-514.7941690176667</v>
+        <v>1115866.207303584</v>
       </c>
       <c r="J133">
-        <v>716.3109759291092</v>
+        <v>4842008.584821329</v>
       </c>
       <c r="K133">
-        <v>3217.66442377055</v>
+        <v>3987414.674710655</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5103,31 +5097,31 @@
         <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>71.56307940768059</v>
+        <v>1116415.088430277</v>
       </c>
       <c r="G134">
-        <v>327.929722188939</v>
+        <v>4841442.014072978</v>
       </c>
       <c r="H134">
-        <v>1696.758161794752</v>
+        <v>3986100.760619937</v>
       </c>
       <c r="I134">
-        <v>-458.0294980634245</v>
+        <v>1115920.608728904</v>
       </c>
       <c r="J134">
-        <v>671.8434387397953</v>
+        <v>4841959.933217018</v>
       </c>
       <c r="K134">
-        <v>3138.633185827766</v>
+        <v>3987339.754296621</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5138,31 +5132,31 @@
         <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>69.75336490453064</v>
+        <v>1116413.661227766</v>
       </c>
       <c r="G135">
-        <v>353.2640282330219</v>
+        <v>4841458.526904833</v>
       </c>
       <c r="H135">
-        <v>1711.842723567702</v>
+        <v>3986116.100973276</v>
       </c>
       <c r="I135">
-        <v>-399.867049309473</v>
+        <v>1115976.349739274</v>
       </c>
       <c r="J135">
-        <v>627.3759015504812</v>
+        <v>4841911.281612706</v>
       </c>
       <c r="K135">
-        <v>3043.622115970089</v>
+        <v>3987249.685244475</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5173,31 +5167,31 @@
         <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>68.0742481985807</v>
+        <v>1116412.337019127</v>
       </c>
       <c r="G136">
-        <v>378.5983342771048</v>
+        <v>4841475.039736687</v>
       </c>
       <c r="H136">
-        <v>1726.193323574881</v>
+        <v>3986130.694918931</v>
       </c>
       <c r="I136">
-        <v>-340.2724037634274</v>
+        <v>1116033.463320743</v>
       </c>
       <c r="J136">
-        <v>582.9083643611672</v>
+        <v>4841862.630008396</v>
       </c>
       <c r="K136">
-        <v>2932.631214197519</v>
+        <v>3987144.467554213</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5208,31 +5202,31 @@
         <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>66.51075180049867</v>
+        <v>1116411.103992601</v>
       </c>
       <c r="G137">
-        <v>403.9326403211877</v>
+        <v>4841491.552568542</v>
       </c>
       <c r="H137">
-        <v>1739.87808403667</v>
+        <v>3986144.611734282</v>
       </c>
       <c r="I137">
-        <v>-279.2102948968792</v>
+        <v>1116091.983271612</v>
       </c>
       <c r="J137">
-        <v>538.4408271718534</v>
+        <v>4841813.978404084</v>
       </c>
       <c r="K137">
-        <v>2805.660480510058</v>
+        <v>3987024.101225839</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5243,31 +5237,31 @@
         <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>65.05019620568534</v>
+        <v>1116409.9521487</v>
       </c>
       <c r="G138">
-        <v>429.2669463652706</v>
+        <v>4841508.065400397</v>
       </c>
       <c r="H138">
-        <v>1752.956062215675</v>
+        <v>3986157.911478037</v>
       </c>
       <c r="I138">
-        <v>-216.6445877756024</v>
+        <v>1116151.944222435</v>
       </c>
       <c r="J138">
-        <v>493.9732899825393</v>
+        <v>4841765.326799774</v>
       </c>
       <c r="K138">
-        <v>2662.709914907703</v>
+        <v>3986888.586259352</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5278,31 +5272,31 @@
         <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>63.68176584301096</v>
+        <v>1116408.872957896</v>
       </c>
       <c r="G139">
-        <v>454.6012524093535</v>
+        <v>4841524.578232251</v>
       </c>
       <c r="H139">
-        <v>1765.478790690611</v>
+        <v>3986170.64655662</v>
       </c>
       <c r="I139">
-        <v>-152.5382576758588</v>
+        <v>1116213.381656508</v>
       </c>
       <c r="J139">
-        <v>449.5057527932254</v>
+        <v>4841716.675195463</v>
       </c>
       <c r="K139">
-        <v>2503.779517390456</v>
+        <v>3986737.92265475</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5313,31 +5307,31 @@
         <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>62.39617114439673</v>
+        <v>1116407.859094118</v>
       </c>
       <c r="G140">
-        <v>479.9355584534364</v>
+        <v>4841541.091064107</v>
       </c>
       <c r="H140">
-        <v>1777.491503772464</v>
+        <v>3986182.86297139</v>
       </c>
       <c r="I140">
-        <v>-86.85336817415127</v>
+        <v>1116276.331930874</v>
       </c>
       <c r="J140">
-        <v>405.0382156039114</v>
+        <v>4841668.023591152</v>
       </c>
       <c r="K140">
-        <v>2328.869287958315</v>
+        <v>3986572.110412036</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5348,31 +5342,31 @@
         <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>61.18538256370713</v>
+        <v>1116406.904224994</v>
       </c>
       <c r="G141">
-        <v>505.2698644975193</v>
+        <v>4841557.60389596</v>
       </c>
       <c r="H141">
-        <v>1789.034123811979</v>
+        <v>3986194.601321667</v>
       </c>
       <c r="I141">
-        <v>-19.55104869745476</v>
+        <v>1116340.832297832</v>
       </c>
       <c r="J141">
-        <v>360.5706784145974</v>
+        <v>4841619.371986841</v>
       </c>
       <c r="K141">
-        <v>2137.979226611281</v>
+        <v>3986391.149531208</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5383,31 +5377,31 @@
         <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>60.04241912286233</v>
+        <v>1116406.002845085</v>
       </c>
       <c r="G142">
-        <v>530.6041705416022</v>
+        <v>4841574.116727816</v>
       </c>
       <c r="H142">
-        <v>1800.142061689656</v>
+        <v>3986205.8976188</v>
       </c>
       <c r="I142">
-        <v>49.408528479357</v>
+        <v>1116406.920926988</v>
       </c>
       <c r="J142">
-        <v>316.1031412252835</v>
+        <v>4841570.72038253</v>
       </c>
       <c r="K142">
-        <v>1931.109333349356</v>
+        <v>3986195.040012266</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5418,31 +5412,31 @@
         <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>58.96117875409697</v>
+        <v>1116405.150142095</v>
       </c>
       <c r="G143">
-        <v>555.9384765856852</v>
+        <v>4841590.629559671</v>
       </c>
       <c r="H143">
-        <v>1810.846871976281</v>
+        <v>3986216.783952437</v>
       </c>
       <c r="I143">
-        <v>120.0661718025</v>
+        <v>1116474.636927837</v>
       </c>
       <c r="J143">
-        <v>271.6356040359694</v>
+        <v>4841522.068778219</v>
       </c>
       <c r="K143">
-        <v>1708.259608172537</v>
+        <v>3985983.781855211</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5453,31 +5447,31 @@
         <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>57.93630101691684</v>
+        <v>1116404.341888595</v>
       </c>
       <c r="G144">
-        <v>581.272782629768</v>
+        <v>4841607.142391525</v>
       </c>
       <c r="H144">
-        <v>1821.176793319335</v>
+        <v>3986227.289040072</v>
       </c>
       <c r="I144">
-        <v>192.463694588636</v>
+        <v>1116544.020372909</v>
       </c>
       <c r="J144">
-        <v>227.1680668466556</v>
+        <v>4841473.417173908</v>
       </c>
       <c r="K144">
-        <v>1469.430051080827</v>
+        <v>3985757.375060042</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5488,31 +5482,31 @@
         <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>56.96305513583172</v>
+        <v>1116403.574353736</v>
       </c>
       <c r="G145">
-        <v>606.607088673851</v>
+        <v>4841623.65522338</v>
       </c>
       <c r="H145">
-        <v>1831.157197368747</v>
+        <v>3986237.438683588</v>
       </c>
       <c r="I145">
-        <v>266.6439397688802</v>
+        <v>1116615.112321484</v>
       </c>
       <c r="J145">
-        <v>182.7005296573415</v>
+        <v>4841424.765569597</v>
       </c>
       <c r="K145">
-        <v>1214.620662074222</v>
+        <v>3985515.81962676</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5523,31 +5517,31 @@
         <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>56.03724802026862</v>
+        <v>1116402.844230704</v>
       </c>
       <c r="G146">
-        <v>631.9413947179338</v>
+        <v>4841640.168055235</v>
       </c>
       <c r="H146">
-        <v>1840.810964211111</v>
+        <v>3986247.256151052</v>
       </c>
       <c r="I146">
-        <v>342.6508052421145</v>
+        <v>1116687.95484389</v>
       </c>
       <c r="J146">
-        <v>138.2329924680275</v>
+        <v>4841376.113965286</v>
       </c>
       <c r="K146">
-        <v>943.8314411527248</v>
+        <v>3985259.115555365</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5558,31 +5552,31 @@
         <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>55.15514818563991</v>
+        <v>1116402.148576723</v>
       </c>
       <c r="G147">
-        <v>657.2757007620168</v>
+        <v>4841656.680887089</v>
       </c>
       <c r="H147">
-        <v>1850.158798292978</v>
+        <v>3986256.762498</v>
       </c>
       <c r="I147">
-        <v>420.5292698525918</v>
+        <v>1116762.591046395</v>
       </c>
       <c r="J147">
-        <v>93.76545527871365</v>
+        <v>4841327.462360975</v>
       </c>
       <c r="K147">
-        <v>657.0623883163356</v>
+        <v>3984987.262845856</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5593,31 +5587,31 @@
         <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>54.31342242669996</v>
+        <v>1116401.484763113</v>
       </c>
       <c r="G148">
-        <v>682.6100068060997</v>
+        <v>4841673.193718945</v>
       </c>
       <c r="H148">
-        <v>1859.219495806087</v>
+        <v>3986265.976839354</v>
       </c>
       <c r="I148">
-        <v>500.3254200072302</v>
+        <v>1116839.065096724</v>
       </c>
       <c r="J148">
-        <v>49.29791808939959</v>
+        <v>4841278.810756665</v>
       </c>
       <c r="K148">
-        <v>354.3135035650528</v>
+        <v>3984700.261498234</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5628,31 +5622,31 @@
         <v>11</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>53.50908279235967</v>
+        <v>1116400.850433475</v>
       </c>
       <c r="G149">
-        <v>707.9443128501827</v>
+        <v>4841689.706550799</v>
       </c>
       <c r="H149">
-        <v>1868.010172217209</v>
+        <v>3986274.916580811</v>
       </c>
       <c r="I149">
-        <v>582.0864769483138</v>
+        <v>1116917.422250187</v>
       </c>
       <c r="J149">
-        <v>4.830380900085538</v>
+        <v>4841230.159152353</v>
       </c>
       <c r="K149">
-        <v>35.58478689887747</v>
+        <v>3984398.111512498</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5663,31 +5657,31 @@
         <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>52.73944193887871</v>
+        <v>1116400.243468477</v>
       </c>
       <c r="G150">
-        <v>733.2786188942655</v>
+        <v>4841706.219382654</v>
       </c>
       <c r="H150">
-        <v>1876.546456865526</v>
+        <v>3986283.597616739</v>
       </c>
       <c r="I150">
-        <v>665.8608246977778</v>
+        <v>1116997.708876466</v>
       </c>
       <c r="J150">
-        <v>-39.63715628922831</v>
+        <v>4841181.507548043</v>
       </c>
       <c r="K150">
-        <v>-299.1237616821897</v>
+        <v>3984080.812888649</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5698,31 +5692,31 @@
         <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>52.00207534092959</v>
+        <v>1116399.661956057</v>
       </c>
       <c r="G151">
-        <v>758.6129249383483</v>
+        <v>4841722.732214509</v>
       </c>
       <c r="H151">
-        <v>1884.842660186939</v>
+        <v>3986292.034500238</v>
       </c>
       <c r="I151">
-        <v>751.698038689586</v>
+        <v>1117079.972487056</v>
       </c>
       <c r="J151">
-        <v>-84.10469347854236</v>
+        <v>4841132.855943731</v>
       </c>
       <c r="K151">
-        <v>-649.8121421781506</v>
+        <v>3983748.365626686</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5733,31 +5727,31 @@
         <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>51.29478914970317</v>
+        <v>1116399.10416607</v>
       </c>
       <c r="G152">
-        <v>783.9472309824314</v>
+        <v>4841739.245046363</v>
       </c>
       <c r="H152">
-        <v>1892.911918059671</v>
+        <v>3986300.240589936</v>
       </c>
       <c r="I152">
-        <v>839.6489151071543</v>
+        <v>1117164.261763375</v>
       </c>
       <c r="J152">
-        <v>-128.5722306678564</v>
+        <v>4841084.204339419</v>
       </c>
       <c r="K152">
-        <v>-1016.480354589005</v>
+        <v>3983400.76972661</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5768,31 +5762,31 @@
         <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>50.61559272733115</v>
+        <v>1116398.568528633</v>
       </c>
       <c r="G153">
-        <v>809.2815370265142</v>
+        <v>4841755.757878218</v>
       </c>
       <c r="H153">
-        <v>1900.766316927512</v>
+        <v>3986308.228177226</v>
       </c>
       <c r="I153">
-        <v>929.7655009431824</v>
+        <v>1117250.626585579</v>
       </c>
       <c r="J153">
-        <v>-173.0397678571705</v>
+        <v>4841035.552735109</v>
       </c>
       <c r="K153">
-        <v>-1399.128398914752</v>
+        <v>3983038.02518842</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5803,31 +5797,31 @@
         <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>49.9626750744398</v>
+        <v>1116398.053615528</v>
       </c>
       <c r="G154">
-        <v>834.6158430705971</v>
+        <v>4841772.270710072</v>
       </c>
       <c r="H154">
-        <v>1908.417002692957</v>
+        <v>3986316.008597015</v>
       </c>
       <c r="I154">
-        <v>1022.101124799683</v>
+        <v>1117339.118062075</v>
       </c>
       <c r="J154">
-        <v>-217.5073050464841</v>
+        <v>4840986.901130798</v>
       </c>
       <c r="K154">
-        <v>-1797.756275155388</v>
+        <v>3982660.132012117</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5838,31 +5832,31 @@
         <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>49.33438451516933</v>
+        <v>1116397.558124188</v>
       </c>
       <c r="G155">
-        <v>859.9501491146801</v>
+        <v>4841788.783541927</v>
       </c>
       <c r="H155">
-        <v>1915.874275842805</v>
+        <v>3986323.592324457</v>
       </c>
       <c r="I155">
-        <v>1116.710428446435</v>
+        <v>1117429.78855977</v>
       </c>
       <c r="J155">
-        <v>-261.9748422357982</v>
+        <v>4840938.249526488</v>
       </c>
       <c r="K155">
-        <v>-2212.36398331092</v>
+        <v>3982267.090197701</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5873,31 +5867,31 @@
         <v>11</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>48.72921112079511</v>
+        <v>1116397.080863832</v>
       </c>
       <c r="G156">
-        <v>885.284455158763</v>
+        <v>4841805.296373782</v>
       </c>
       <c r="H156">
-        <v>1923.14767484358</v>
+        <v>3986330.989059763</v>
       </c>
       <c r="I156">
-        <v>1213.649399156525</v>
+        <v>1117522.691735055</v>
       </c>
       <c r="J156">
-        <v>-306.4423794251122</v>
+        <v>4840889.597922176</v>
       </c>
       <c r="K156">
-        <v>-2642.951523381345</v>
+        <v>3981858.89974517</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5908,31 +5902,31 @@
         <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>48.14577144615237</v>
+        <v>1116396.620743427</v>
       </c>
       <c r="G157">
-        <v>910.6187612028458</v>
+        <v>4841821.809205637</v>
       </c>
       <c r="H157">
-        <v>1930.246049500861</v>
+        <v>3986338.207802808</v>
       </c>
       <c r="I157">
-        <v>1312.975402838132</v>
+        <v>1117617.882565561</v>
       </c>
       <c r="J157">
-        <v>-350.9099166144263</v>
+        <v>4840840.946317866</v>
       </c>
       <c r="K157">
-        <v>-3089.518895366663</v>
+        <v>3981435.560654527</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5943,31 +5937,31 @@
         <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>47.58279522766012</v>
+        <v>1116396.176761202</v>
       </c>
       <c r="G158">
-        <v>935.9530672469289</v>
+        <v>4841838.322037491</v>
       </c>
       <c r="H158">
-        <v>1937.177625697846</v>
+        <v>3986345.256918961</v>
       </c>
       <c r="I158">
-        <v>1414.747217982152</v>
+        <v>1117715.417382695</v>
       </c>
       <c r="J158">
-        <v>-395.3774538037403</v>
+        <v>4840792.294713555</v>
       </c>
       <c r="K158">
-        <v>-3552.066099266873</v>
+        <v>3980997.072925769</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5978,31 +5972,31 @@
         <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>47.03911375185846</v>
+        <v>1116395.747995468</v>
       </c>
       <c r="G159">
-        <v>961.2873732910117</v>
+        <v>4841854.834869347</v>
       </c>
       <c r="H159">
-        <v>1943.950062700969</v>
+        <v>3986352.144197369</v>
       </c>
       <c r="I159">
-        <v>1519.025070445738</v>
+        <v>1117815.353904971</v>
       </c>
       <c r="J159">
-        <v>-439.844990993054</v>
+        <v>4840743.643109243</v>
       </c>
       <c r="K159">
-        <v>-4030.593135081973</v>
+        <v>3980543.436558899</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6013,31 +6007,31 @@
         <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>46.5136496520969</v>
+        <v>1116395.333596577</v>
       </c>
       <c r="G160">
-        <v>986.6216793350945</v>
+        <v>4841871.347701201</v>
       </c>
       <c r="H160">
-        <v>1950.570504033711</v>
+        <v>3986358.87690269</v>
       </c>
       <c r="I160">
-        <v>1625.870669092377</v>
+        <v>1117917.751272168</v>
       </c>
       <c r="J160">
-        <v>-484.312528182368</v>
+        <v>4840694.991504932</v>
       </c>
       <c r="K160">
-        <v>-4525.100002811969</v>
+        <v>3980074.651553915</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6045,34 +6039,34 @@
         <v>46</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D161" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E161">
         <v>152.142</v>
       </c>
       <c r="F161">
-        <v>180.6053923543382</v>
+        <v>1116579.457016134</v>
       </c>
       <c r="G161">
-        <v>-118.5775867321211</v>
+        <v>4841126.901239756</v>
       </c>
       <c r="H161">
-        <v>679.2620373024747</v>
+        <v>3985231.036981707</v>
       </c>
       <c r="I161">
-        <v>-1201.545424538755</v>
+        <v>1114861.062261886</v>
       </c>
       <c r="J161">
-        <v>3001.870430462217</v>
+        <v>4843217.455418363</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>3984370.949505457</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6080,34 +6074,34 @@
         <v>46</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E162">
         <v>153.142</v>
       </c>
       <c r="F162">
-        <v>180.6053923543382</v>
+        <v>1116579.457016134</v>
       </c>
       <c r="G162">
-        <v>-118.5775867321211</v>
+        <v>4841126.901239756</v>
       </c>
       <c r="H162">
-        <v>679.2620373024747</v>
+        <v>3985231.036981707</v>
       </c>
       <c r="I162">
-        <v>-1177.82371845852</v>
+        <v>1114890.67625051</v>
       </c>
       <c r="J162">
-        <v>2928.84754840294</v>
+        <v>4843168.803888584</v>
       </c>
       <c r="K162">
-        <v>424.3125407770874</v>
+        <v>3984674.745545341</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6115,34 +6109,34 @@
         <v>46</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E163">
         <v>154.142</v>
       </c>
       <c r="F163">
-        <v>180.6053923543382</v>
+        <v>1116579.457016134</v>
       </c>
       <c r="G163">
-        <v>-118.5775867321211</v>
+        <v>4841126.901239756</v>
       </c>
       <c r="H163">
-        <v>679.2620373024747</v>
+        <v>3985231.036981707</v>
       </c>
       <c r="I163">
-        <v>-1153.517887189629</v>
+        <v>1114921.019456359</v>
       </c>
       <c r="J163">
-        <v>2855.824666343663</v>
+        <v>4843120.152358803</v>
       </c>
       <c r="K163">
-        <v>827.4669132921667</v>
+        <v>3984963.392922127</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6150,34 +6144,34 @@
         <v>46</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E164">
         <v>155.142</v>
       </c>
       <c r="F164">
-        <v>180.6053923543382</v>
+        <v>1116579.457016134</v>
       </c>
       <c r="G164">
-        <v>-118.5775867321211</v>
+        <v>4841126.901239756</v>
       </c>
       <c r="H164">
-        <v>679.2620373024747</v>
+        <v>3985231.036981707</v>
       </c>
       <c r="I164">
-        <v>-1128.613547186697</v>
+        <v>1114952.109835736</v>
       </c>
       <c r="J164">
-        <v>2782.801784284387</v>
+        <v>4843071.500829024</v>
       </c>
       <c r="K164">
-        <v>1209.463117545241</v>
+        <v>3985236.891635811</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6185,34 +6179,34 @@
         <v>46</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D165" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E165">
         <v>156.142</v>
       </c>
       <c r="F165">
-        <v>180.6053923543382</v>
+        <v>1116579.457016134</v>
       </c>
       <c r="G165">
-        <v>-118.5775867321211</v>
+        <v>4841126.901239756</v>
       </c>
       <c r="H165">
-        <v>679.2620373024747</v>
+        <v>3985231.036981707</v>
       </c>
       <c r="I165">
-        <v>-1103.095960722765</v>
+        <v>1114983.965787103</v>
       </c>
       <c r="J165">
-        <v>2709.778902225111</v>
+        <v>4843022.849299245</v>
       </c>
       <c r="K165">
-        <v>1570.301153536308</v>
+        <v>3985495.241686398</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6220,34 +6214,34 @@
         <v>46</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E166">
         <v>157.142</v>
       </c>
       <c r="F166">
-        <v>180.6053923543382</v>
+        <v>1116579.457016134</v>
       </c>
       <c r="G166">
-        <v>-118.5775867321211</v>
+        <v>4841126.901239756</v>
       </c>
       <c r="H166">
-        <v>679.2620373024747</v>
+        <v>3985231.036981707</v>
       </c>
       <c r="I166">
-        <v>-1076.950027167907</v>
+        <v>1115016.606161966</v>
       </c>
       <c r="J166">
-        <v>2636.756020165834</v>
+        <v>4842974.197769465</v>
       </c>
       <c r="K166">
-        <v>1909.98102126537</v>
+        <v>3985738.443073884</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6255,34 +6249,34 @@
         <v>46</v>
       </c>
       <c r="B167" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E167">
         <v>158.142</v>
       </c>
       <c r="F167">
-        <v>180.6053923543382</v>
+        <v>1116579.457016134</v>
       </c>
       <c r="G167">
-        <v>-118.5775867321211</v>
+        <v>4841126.901239756</v>
       </c>
       <c r="H167">
-        <v>679.2620373024747</v>
+        <v>3985231.036981707</v>
       </c>
       <c r="I167">
-        <v>-1050.16027405308</v>
+        <v>1115050.050276031</v>
       </c>
       <c r="J167">
-        <v>2563.733138106558</v>
+        <v>4842925.546239684</v>
       </c>
       <c r="K167">
-        <v>2228.502720732425</v>
+        <v>3985966.49579827</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6290,34 +6284,34 @@
         <v>46</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E168">
         <v>159.142</v>
       </c>
       <c r="F168">
-        <v>180.6053923543382</v>
+        <v>1116579.457016134</v>
       </c>
       <c r="G168">
-        <v>-118.5775867321211</v>
+        <v>4841126.901239756</v>
       </c>
       <c r="H168">
-        <v>679.2620373024747</v>
+        <v>3985231.036981707</v>
       </c>
       <c r="I168">
-        <v>-1022.71084791392</v>
+        <v>1115084.317920637</v>
       </c>
       <c r="J168">
-        <v>2490.710256047281</v>
+        <v>4842876.894709905</v>
       </c>
       <c r="K168">
-        <v>2525.866251937474</v>
+        <v>3986179.399859556</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6325,34 +6319,34 @@
         <v>46</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D169" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E169">
         <v>160.142</v>
       </c>
       <c r="F169">
-        <v>180.6053923543382</v>
+        <v>1116579.457016134</v>
       </c>
       <c r="G169">
-        <v>-98.99708942316956</v>
+        <v>4841143.414066941</v>
       </c>
       <c r="H169">
-        <v>679.2620373024747</v>
+        <v>3985231.036981707</v>
       </c>
       <c r="I169">
-        <v>-994.5855049090927</v>
+        <v>1115119.429374466</v>
       </c>
       <c r="J169">
-        <v>2417.687373988005</v>
+        <v>4842828.243180125</v>
       </c>
       <c r="K169">
-        <v>2802.071614880515</v>
+        <v>3986377.155257743</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6360,34 +6354,34 @@
         <v>46</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E170">
         <v>161.142</v>
       </c>
       <c r="F170">
-        <v>140.1708532524524</v>
+        <v>1116530.776410808</v>
       </c>
       <c r="G170">
-        <v>-79.41659211421799</v>
+        <v>4841159.926894126</v>
       </c>
       <c r="H170">
-        <v>836.8462591644862</v>
+        <v>3985430.291523908</v>
       </c>
       <c r="I170">
-        <v>-965.7676012076124</v>
+        <v>1115155.405415543</v>
       </c>
       <c r="J170">
-        <v>2344.664491928729</v>
+        <v>4842779.591650345</v>
       </c>
       <c r="K170">
-        <v>3057.11880956155</v>
+        <v>3986559.76199283</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6395,34 +6389,34 @@
         <v>46</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D171" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E171">
         <v>162.142</v>
       </c>
       <c r="F171">
-        <v>116.4175899455396</v>
+        <v>1116502.178997262</v>
       </c>
       <c r="G171">
-        <v>-59.83609480526644</v>
+        <v>4841176.439721311</v>
       </c>
       <c r="H171">
-        <v>930.7114808685657</v>
+        <v>3985548.977719507</v>
       </c>
       <c r="I171">
-        <v>-936.2400831394688</v>
+        <v>1115192.267333535</v>
       </c>
       <c r="J171">
-        <v>2271.641609869453</v>
+        <v>4842730.940120565</v>
       </c>
       <c r="K171">
-        <v>3291.00783598058</v>
+        <v>3986727.220064818</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6430,34 +6424,34 @@
         <v>46</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E172">
         <v>163.142</v>
       </c>
       <c r="F172">
-        <v>101.4227875186514</v>
+        <v>1116484.126211819</v>
       </c>
       <c r="G172">
-        <v>-40.25559749631487</v>
+        <v>4841192.952548495</v>
       </c>
       <c r="H172">
-        <v>997.7906107126669</v>
+        <v>3985633.794721809</v>
       </c>
       <c r="I172">
-        <v>-905.985477103715</v>
+        <v>1115230.036942345</v>
       </c>
       <c r="J172">
-        <v>2198.618727810176</v>
+        <v>4842682.288590785</v>
       </c>
       <c r="K172">
-        <v>3503.738694137604</v>
+        <v>3986879.529473705</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6465,34 +6459,34 @@
         <v>46</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D173" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E173">
         <v>164.142</v>
       </c>
       <c r="F173">
-        <v>90.96547317361606</v>
+        <v>1116471.536272532</v>
       </c>
       <c r="G173">
-        <v>-20.6751001873633</v>
+        <v>4841209.46537568</v>
       </c>
       <c r="H173">
-        <v>1050.025093184599</v>
+        <v>3985699.84167606</v>
       </c>
       <c r="I173">
-        <v>-874.9858792280584</v>
+        <v>1115268.736593024</v>
       </c>
       <c r="J173">
-        <v>2125.5958457509</v>
+        <v>4842633.637061005</v>
       </c>
       <c r="K173">
-        <v>3695.311384032621</v>
+        <v>3987016.690219493</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6500,34 +6494,34 @@
         <v>46</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E174">
         <v>165.142</v>
       </c>
       <c r="F174">
-        <v>83.16400351138577</v>
+        <v>1116462.143800798</v>
       </c>
       <c r="G174">
-        <v>-1.094602878411744</v>
+        <v>4841225.978202865</v>
       </c>
       <c r="H174">
-        <v>1092.809186004888</v>
+        <v>3985753.939254661</v>
       </c>
       <c r="I174">
-        <v>-843.2229447738208</v>
+        <v>1115308.389186998</v>
       </c>
       <c r="J174">
-        <v>2052.572963691623</v>
+        <v>4842584.985531226</v>
       </c>
       <c r="K174">
-        <v>3865.72590566563</v>
+        <v>3987138.702302182</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6535,34 +6529,34 @@
         <v>46</v>
       </c>
       <c r="B175" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E175">
         <v>166.142</v>
       </c>
       <c r="F175">
-        <v>77.06434367846151</v>
+        <v>1116454.800199522</v>
       </c>
       <c r="G175">
-        <v>18.48589443053983</v>
+        <v>4841242.49103005</v>
       </c>
       <c r="H175">
-        <v>1129.044189536266</v>
+        <v>3985799.755954803</v>
       </c>
       <c r="I175">
-        <v>-810.6778772800116</v>
+        <v>1115349.018189619</v>
       </c>
       <c r="J175">
-        <v>1979.550081632347</v>
+        <v>4842536.334001445</v>
       </c>
       <c r="K175">
-        <v>4014.982259036634</v>
+        <v>3987245.56572177</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6570,34 +6564,34 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D176" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E176">
         <v>167.142</v>
       </c>
       <c r="F176">
-        <v>72.12927474283029</v>
+        <v>1116448.858691384</v>
       </c>
       <c r="G176">
-        <v>38.06639173949139</v>
+        <v>4841259.003857235</v>
       </c>
       <c r="H176">
-        <v>1160.471455722092</v>
+        <v>3985839.493597713</v>
       </c>
       <c r="I176">
-        <v>-777.33141744008</v>
+        <v>1115390.647644052</v>
       </c>
       <c r="J176">
-        <v>1906.52719957307</v>
+        <v>4842487.682471666</v>
       </c>
       <c r="K176">
-        <v>4143.080444145632</v>
+        <v>3987337.280478259</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6605,34 +6599,34 @@
         <v>46</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D177" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E177">
         <v>168.142</v>
       </c>
       <c r="F177">
-        <v>68.03140906268349</v>
+        <v>1116443.925122552</v>
       </c>
       <c r="G177">
-        <v>57.64688904844295</v>
+        <v>4841275.516684421</v>
       </c>
       <c r="H177">
-        <v>1188.218621919954</v>
+        <v>3985874.578004214</v>
       </c>
       <c r="I177">
-        <v>-743.1638317047712</v>
+        <v>1115433.302185501</v>
       </c>
       <c r="J177">
-        <v>1833.504317513794</v>
+        <v>4842439.030941887</v>
       </c>
       <c r="K177">
-        <v>4250.020460992624</v>
+        <v>3987413.846571648</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6640,34 +6634,34 @@
         <v>46</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E178">
         <v>169.142</v>
       </c>
       <c r="F178">
-        <v>64.55877622484179</v>
+        <v>1116439.744294172</v>
       </c>
       <c r="G178">
-        <v>77.22738635739454</v>
+        <v>4841292.029511605</v>
       </c>
       <c r="H178">
-        <v>1213.057919198184</v>
+        <v>3985905.98560803</v>
       </c>
       <c r="I178">
-        <v>-708.1549006043324</v>
+        <v>1115477.007055792</v>
       </c>
       <c r="J178">
-        <v>1760.481435454517</v>
+        <v>4842390.379412107</v>
       </c>
       <c r="K178">
-        <v>4335.802309577609</v>
+        <v>3987475.264001938</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6675,34 +6669,34 @@
         <v>46</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D179" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E179">
         <v>170.142</v>
       </c>
       <c r="F179">
-        <v>61.56744182637284</v>
+        <v>1116436.142918405</v>
       </c>
       <c r="G179">
-        <v>96.80788366634609</v>
+        <v>4841308.542338791</v>
       </c>
       <c r="H179">
-        <v>1235.541428274733</v>
+        <v>3985934.414477717</v>
       </c>
       <c r="I179">
-        <v>-672.2839067831713</v>
+        <v>1115521.788118307</v>
       </c>
       <c r="J179">
-        <v>1687.458553395241</v>
+        <v>4842341.727882327</v>
       </c>
       <c r="K179">
-        <v>4400.425989900587</v>
+        <v>3987521.532769127</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6710,34 +6704,34 @@
         <v>46</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D180" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E180">
         <v>171.142</v>
       </c>
       <c r="F180">
-        <v>58.95585232907293</v>
+        <v>1116432.998731272</v>
       </c>
       <c r="G180">
-        <v>116.3883809752977</v>
+        <v>4841325.055165976</v>
       </c>
       <c r="H180">
-        <v>1256.077546600775</v>
+        <v>3985960.381004108</v>
       </c>
       <c r="I180">
-        <v>-635.5296227398736</v>
+        <v>1115567.671873288</v>
       </c>
       <c r="J180">
-        <v>1614.435671335965</v>
+        <v>4842293.076352547</v>
       </c>
       <c r="K180">
-        <v>4443.891501961559</v>
+        <v>3987552.652873218</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6745,34 +6739,34 @@
         <v>46</v>
       </c>
       <c r="B181" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D181" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E181">
         <v>172.142</v>
       </c>
       <c r="F181">
-        <v>56.65006563631611</v>
+        <v>1116430.222711205</v>
       </c>
       <c r="G181">
-        <v>135.9688782842492</v>
+        <v>4841341.56799316</v>
       </c>
       <c r="H181">
-        <v>1274.976891920606</v>
+        <v>3985984.277942234</v>
       </c>
       <c r="I181">
-        <v>-597.8702982653308</v>
+        <v>1115614.685473523</v>
       </c>
       <c r="J181">
-        <v>1541.412789276688</v>
+        <v>4842244.424822767</v>
       </c>
       <c r="K181">
-        <v>4466.198845760525</v>
+        <v>3987568.624314208</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6780,34 +6774,34 @@
         <v>46</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D182" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E182">
         <v>173.142</v>
       </c>
       <c r="F182">
-        <v>54.5948097609801</v>
+        <v>1116427.748314258</v>
       </c>
       <c r="G182">
-        <v>155.5493755932008</v>
+        <v>4841358.080820346</v>
       </c>
       <c r="H182">
-        <v>1292.48122258331</v>
+        <v>3986006.410979105</v>
       </c>
       <c r="I182">
-        <v>-559.2836475715455</v>
+        <v>1115662.856740413</v>
       </c>
       <c r="J182">
-        <v>1468.389907217412</v>
+        <v>4842195.773292988</v>
       </c>
       <c r="K182">
-        <v>4467.348021297485</v>
+        <v>3987569.447092099</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6815,34 +6809,34 @@
         <v>46</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E183">
         <v>174.142</v>
       </c>
       <c r="F183">
-        <v>52.74783777248697</v>
+        <v>1116425.524677822</v>
       </c>
       <c r="G183">
-        <v>175.1298729021524</v>
+        <v>4841374.593647531</v>
       </c>
       <c r="H183">
-        <v>1308.782397933309</v>
+        <v>3986027.022707826</v>
       </c>
       <c r="I183">
-        <v>-519.7468361034938</v>
+        <v>1115712.214180432</v>
       </c>
       <c r="J183">
-        <v>1395.367025158135</v>
+        <v>4842147.121763207</v>
       </c>
       <c r="K183">
-        <v>4447.339028572437</v>
+        <v>3987555.121206889</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6850,34 +6844,34 @@
         <v>46</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E184">
         <v>175.142</v>
       </c>
       <c r="F184">
-        <v>51.07623497098066</v>
+        <v>1116423.512174698</v>
       </c>
       <c r="G184">
-        <v>194.7103702111039</v>
+        <v>4841391.106474716</v>
       </c>
       <c r="H184">
-        <v>1324.035230989708</v>
+        <v>3986046.308878941</v>
       </c>
       <c r="I184">
-        <v>-479.2364670262404</v>
+        <v>1115762.787002005</v>
       </c>
       <c r="J184">
-        <v>1322.344143098859</v>
+        <v>4842098.470233427</v>
       </c>
       <c r="K184">
-        <v>4406.171867585384</v>
+        <v>3987525.64665858</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6885,34 +6879,34 @@
         <v>46</v>
       </c>
       <c r="B185" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D185" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E185">
         <v>176.142</v>
       </c>
       <c r="F185">
-        <v>49.55392849603932</v>
+        <v>1116421.679414826</v>
       </c>
       <c r="G185">
-        <v>214.2908675200555</v>
+        <v>4841407.619301901</v>
       </c>
       <c r="H185">
-        <v>1338.3664521547</v>
+        <v>3986064.429734435</v>
       </c>
       <c r="I185">
-        <v>-437.7285673793161</v>
+        <v>1115814.605132782</v>
       </c>
       <c r="J185">
-        <v>1249.321261039583</v>
+        <v>4842049.818703648</v>
       </c>
       <c r="K185">
-        <v>4343.846538336325</v>
+        <v>3987481.023447172</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6920,34 +6914,34 @@
         <v>46</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D186" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E186">
         <v>177.142</v>
       </c>
       <c r="F186">
-        <v>48.15996297023038</v>
+        <v>1116420.001169269</v>
       </c>
       <c r="G186">
-        <v>233.871364829007</v>
+        <v>4841424.132129086</v>
       </c>
       <c r="H186">
-        <v>1351.881115804117</v>
+        <v>3986081.518108427</v>
       </c>
       <c r="I186">
-        <v>-395.1985738901537</v>
+        <v>1115867.699237358</v>
       </c>
       <c r="J186">
-        <v>1176.298378980306</v>
+        <v>4842001.167173867</v>
       </c>
       <c r="K186">
-        <v>4260.363040825259</v>
+        <v>3987421.251572663</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6955,34 +6949,34 @@
         <v>46</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D187" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E187">
         <v>178.142</v>
       </c>
       <c r="F187">
-        <v>46.8772786964451</v>
+        <v>1116418.45689924</v>
       </c>
       <c r="G187">
-        <v>253.4518621379586</v>
+        <v>4841440.644956271</v>
       </c>
       <c r="H187">
-        <v>1364.667278087391</v>
+        <v>3986097.685341937</v>
       </c>
       <c r="I187">
-        <v>-351.6213184381975</v>
+        <v>1115922.100735413</v>
       </c>
       <c r="J187">
-        <v>1103.27549692103</v>
+        <v>4841952.515644087</v>
       </c>
       <c r="K187">
-        <v>4155.721375052187</v>
+        <v>3987346.331035055</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6990,34 +6984,34 @@
         <v>46</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D188" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E188">
         <v>179.142</v>
       </c>
       <c r="F188">
-        <v>45.69182815648338</v>
+        <v>1116417.029692422</v>
       </c>
       <c r="G188">
-        <v>273.0323594469102</v>
+        <v>4841457.157783457</v>
       </c>
       <c r="H188">
-        <v>1376.799477194692</v>
+        <v>3986113.025683441</v>
       </c>
       <c r="I188">
-        <v>-306.9710131610763</v>
+        <v>1115977.84182031</v>
       </c>
       <c r="J188">
-        <v>1030.252614861754</v>
+        <v>4841903.864114309</v>
       </c>
       <c r="K188">
-        <v>4029.921541017108</v>
+        <v>3987256.261834348</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7025,34 +7019,34 @@
         <v>46</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D189" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E189">
         <v>180.142</v>
       </c>
       <c r="F189">
-        <v>44.59192549102843</v>
+        <v>1116415.705479788</v>
       </c>
       <c r="G189">
-        <v>292.6128567558617</v>
+        <v>4841473.670610641</v>
       </c>
       <c r="H189">
-        <v>1388.341366128353</v>
+        <v>3986127.619617836</v>
       </c>
       <c r="I189">
-        <v>-261.2212351940338</v>
+        <v>1116034.955478141</v>
       </c>
       <c r="J189">
-        <v>957.229732802477</v>
+        <v>4841855.212584529</v>
       </c>
       <c r="K189">
-        <v>3882.963538720022</v>
+        <v>3987151.043970541</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7060,34 +7054,34 @@
         <v>46</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D190" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E190">
         <v>181.142</v>
       </c>
       <c r="F190">
-        <v>43.56775972006926</v>
+        <v>1116414.472449542</v>
       </c>
       <c r="G190">
-        <v>312.1933540648133</v>
+        <v>4841490.183437827</v>
       </c>
       <c r="H190">
-        <v>1399.347734172526</v>
+        <v>3986141.536422451</v>
       </c>
       <c r="I190">
-        <v>-214.3449110335769</v>
+        <v>1116093.475507253</v>
       </c>
       <c r="J190">
-        <v>884.2068507432008</v>
+        <v>4841806.561054748</v>
       </c>
       <c r="K190">
-        <v>3714.847368160932</v>
+        <v>3987030.677443634</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7095,34 +7089,34 @@
         <v>46</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E191">
         <v>182.142</v>
       </c>
       <c r="F191">
-        <v>42.61102515475417</v>
+        <v>1116413.320602166</v>
       </c>
       <c r="G191">
-        <v>331.7738513737649</v>
+        <v>4841506.696265012</v>
       </c>
       <c r="H191">
-        <v>1409.866079854477</v>
+        <v>3986154.836155945</v>
       </c>
       <c r="I191">
-        <v>-166.3143005160963</v>
+        <v>1116153.436538244</v>
       </c>
       <c r="J191">
-        <v>811.1839686839243</v>
+        <v>4841757.909524969</v>
       </c>
       <c r="K191">
-        <v>3525.573029339834</v>
+        <v>3986895.162253627</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7130,34 +7124,34 @@
         <v>46</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E192">
         <v>183.142</v>
       </c>
       <c r="F192">
-        <v>41.71463707281706</v>
+        <v>1116412.241408105</v>
       </c>
       <c r="G192">
-        <v>351.3543486827164</v>
+        <v>4841523.209092196</v>
       </c>
       <c r="H192">
-        <v>1419.937849754816</v>
+        <v>3986167.571224703</v>
       </c>
       <c r="I192">
-        <v>-117.1009804019739</v>
+        <v>1116214.87405446</v>
       </c>
       <c r="J192">
-        <v>738.1610866246481</v>
+        <v>4841709.257995189</v>
       </c>
       <c r="K192">
-        <v>3315.14052225673</v>
+        <v>3986744.498400521</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7165,34 +7159,34 @@
         <v>46</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E193">
         <v>184.142</v>
       </c>
       <c r="F193">
-        <v>40.87251035780675</v>
+        <v>1116411.227541269</v>
       </c>
       <c r="G193">
-        <v>370.934845991668</v>
+        <v>4841539.721919382</v>
       </c>
       <c r="H193">
-        <v>1429.599424888492</v>
+        <v>3986179.787630047</v>
       </c>
       <c r="I193">
-        <v>-66.67582755546539</v>
+        <v>1116277.824412992</v>
       </c>
       <c r="J193">
-        <v>665.1382045653716</v>
+        <v>4841660.60646541</v>
       </c>
       <c r="K193">
-        <v>3083.54984691162</v>
+        <v>3986578.685884314</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7200,34 +7194,34 @@
         <v>46</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E194">
         <v>185.142</v>
       </c>
       <c r="F194">
-        <v>40.07938526859534</v>
+        <v>1116410.272669263</v>
       </c>
       <c r="G194">
-        <v>390.5153433006196</v>
+        <v>4841556.234746566</v>
       </c>
       <c r="H194">
-        <v>1438.882913971379</v>
+        <v>3986191.525971268</v>
       </c>
       <c r="I194">
-        <v>-15.00900171040187</v>
+        <v>1116342.324866188</v>
       </c>
       <c r="J194">
-        <v>592.115322506095</v>
+        <v>4841611.954935629</v>
       </c>
       <c r="K194">
-        <v>2830.801003304502</v>
+        <v>3986397.724705008</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7235,34 +7229,34 @@
         <v>46</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E195">
         <v>186.142</v>
       </c>
       <c r="F195">
-        <v>39.33068892685325</v>
+        <v>1116409.371286635</v>
       </c>
       <c r="G195">
-        <v>410.0958406095712</v>
+        <v>4841572.747573752</v>
       </c>
       <c r="H195">
-        <v>1447.816797237725</v>
+        <v>3986202.822259686</v>
       </c>
       <c r="I195">
-        <v>37.93007218848828</v>
+        <v>1116408.413583706</v>
       </c>
       <c r="J195">
-        <v>519.0924404468188</v>
+        <v>4841563.303405849</v>
       </c>
       <c r="K195">
-        <v>2556.89399143538</v>
+        <v>3986201.614862603</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7270,34 +7264,34 @@
         <v>46</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E196">
         <v>187.142</v>
       </c>
       <c r="F196">
-        <v>38.62242418302193</v>
+        <v>1116408.518581071</v>
       </c>
       <c r="G196">
-        <v>429.6763379185227</v>
+        <v>4841589.260400937</v>
       </c>
       <c r="H196">
-        <v>1456.426453372125</v>
+        <v>3986213.708584924</v>
       </c>
       <c r="I196">
-        <v>92.17272207908358</v>
+        <v>1116476.129675092</v>
       </c>
       <c r="J196">
-        <v>446.0695583875423</v>
+        <v>4841514.65187607</v>
       </c>
       <c r="K196">
-        <v>2261.82881130425</v>
+        <v>3985990.356357098</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7305,34 +7299,34 @@
         <v>46</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E197">
         <v>188.142</v>
       </c>
       <c r="F197">
-        <v>37.95107968927983</v>
+        <v>1116407.710325133</v>
       </c>
       <c r="G197">
-        <v>449.2568352274743</v>
+        <v>4841605.773228122</v>
       </c>
       <c r="H197">
-        <v>1464.734594131072</v>
+        <v>3986224.213664455</v>
       </c>
       <c r="I197">
-        <v>147.7510473209124</v>
+        <v>1116545.513212931</v>
       </c>
       <c r="J197">
-        <v>373.0466763282661</v>
+        <v>4841466.00034629</v>
       </c>
       <c r="K197">
-        <v>1945.605462911115</v>
+        <v>3985763.949188492</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7340,34 +7334,34 @@
         <v>46</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E198">
         <v>189.142</v>
       </c>
       <c r="F198">
-        <v>37.31355655884146</v>
+        <v>1116406.942787959</v>
       </c>
       <c r="G198">
-        <v>468.8373325364259</v>
+        <v>4841622.286055307</v>
       </c>
       <c r="H198">
-        <v>1472.76162540459</v>
+        <v>3986234.36330014</v>
       </c>
       <c r="I198">
-        <v>204.697937690699</v>
+        <v>1116616.605256558</v>
       </c>
       <c r="J198">
-        <v>300.0237942689896</v>
+        <v>4841417.348816509</v>
       </c>
       <c r="K198">
-        <v>1608.223946255972</v>
+        <v>3985522.393356788</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7375,34 +7369,34 @@
         <v>46</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E199">
         <v>190.142</v>
       </c>
       <c r="F199">
-        <v>36.70710811455127</v>
+        <v>1116406.212662724</v>
       </c>
       <c r="G199">
-        <v>488.4178298453774</v>
+        <v>4841638.798882493</v>
       </c>
       <c r="H199">
-        <v>1480.525949170167</v>
+        <v>3986244.180760031</v>
       </c>
       <c r="I199">
-        <v>263.0470928456637</v>
+        <v>1116689.447876355</v>
       </c>
       <c r="J199">
-        <v>227.0009122097131</v>
+        <v>4841368.69728673</v>
       </c>
       <c r="K199">
-        <v>1249.684261338823</v>
+        <v>3985265.688861983</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7410,34 +7404,34 @@
         <v>46</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E200">
         <v>191.142</v>
       </c>
       <c r="F200">
-        <v>36.12929005350315</v>
+        <v>1116405.517006643</v>
       </c>
       <c r="G200">
-        <v>507.998327154329</v>
+        <v>4841655.311709677</v>
       </c>
       <c r="H200">
-        <v>1488.04421758328</v>
+        <v>3986253.687099644</v>
       </c>
       <c r="I200">
-        <v>322.83304226608</v>
+        <v>1116764.084178651</v>
       </c>
       <c r="J200">
-        <v>153.9780301504369</v>
+        <v>4841320.045756951</v>
       </c>
       <c r="K200">
-        <v>869.9864081596688</v>
+        <v>3984993.835704079</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7445,34 +7439,34 @@
         <v>46</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E201">
         <v>192.142</v>
       </c>
       <c r="F201">
-        <v>35.57791896502579</v>
+        <v>1116404.853191031</v>
       </c>
       <c r="G201">
-        <v>527.5788244632805</v>
+        <v>4841671.824536862</v>
       </c>
       <c r="H201">
-        <v>1495.331548029776</v>
+        <v>3986262.901433889</v>
       </c>
       <c r="I201">
-        <v>384.0911656889104</v>
+        <v>1116840.558331226</v>
       </c>
       <c r="J201">
-        <v>80.95514809116038</v>
+        <v>4841271.394227171</v>
       </c>
       <c r="K201">
-        <v>469.1303867185069</v>
+        <v>3984706.833883075</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -7480,34 +7474,34 @@
         <v>46</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E202">
         <v>193.142</v>
       </c>
       <c r="F202">
-        <v>35.05103759662119</v>
+        <v>1116404.218859478</v>
       </c>
       <c r="G202">
-        <v>547.1593217722321</v>
+        <v>4841688.337364048</v>
       </c>
       <c r="H202">
-        <v>1502.401706123387</v>
+        <v>3986271.841168449</v>
       </c>
       <c r="I202">
-        <v>446.8577140445873</v>
+        <v>1116918.915589454</v>
       </c>
       <c r="J202">
-        <v>7.93226603188386</v>
+        <v>4841222.742697391</v>
       </c>
       <c r="K202">
-        <v>47.11619701533901</v>
+        <v>3984404.683398972</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -7515,34 +7509,34 @@
         <v>46</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D203" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E203">
         <v>194.142</v>
       </c>
       <c r="F203">
-        <v>34.5468856081459</v>
+        <v>1116403.61189265</v>
       </c>
       <c r="G203">
-        <v>566.7398190811837</v>
+        <v>4841704.850191232</v>
       </c>
       <c r="H203">
-        <v>1509.267262216352</v>
+        <v>3986280.522197679</v>
       </c>
       <c r="I203">
-        <v>511.1698309093567</v>
+        <v>1116999.202323079</v>
       </c>
       <c r="J203">
-        <v>-65.09061602739233</v>
+        <v>4841174.091167611</v>
       </c>
       <c r="K203">
-        <v>-396.056160949834</v>
+        <v>3984087.384251768</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -7550,34 +7544,34 @@
         <v>46</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E204">
         <v>195.142</v>
       </c>
       <c r="F204">
-        <v>34.0638748182301</v>
+        <v>1116403.030378475</v>
       </c>
       <c r="G204">
-        <v>586.3203163901352</v>
+        <v>4841721.363018418</v>
       </c>
       <c r="H204">
-        <v>1515.93972589445</v>
+        <v>3986288.95907467</v>
       </c>
       <c r="I204">
-        <v>577.0655744858586</v>
+        <v>1117081.466043656</v>
       </c>
       <c r="J204">
-        <v>-138.1134980866688</v>
+        <v>4841125.439637831</v>
       </c>
       <c r="K204">
-        <v>-860.3866871770147</v>
+        <v>3983754.936441466</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -7585,34 +7579,34 @@
         <v>46</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C205" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D205" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E205">
         <v>196.142</v>
       </c>
       <c r="F205">
-        <v>33.60056814978189</v>
+        <v>1116402.472586805</v>
       </c>
       <c r="G205">
-        <v>605.9008136990868</v>
+        <v>4841737.875845602</v>
       </c>
       <c r="H205">
-        <v>1522.429662071164</v>
+        <v>3986297.165158036</v>
       </c>
       <c r="I205">
-        <v>644.5839401249599</v>
+        <v>1117165.755432672</v>
       </c>
       <c r="J205">
-        <v>-211.1363801459454</v>
+        <v>4841076.788108051</v>
       </c>
       <c r="K205">
-        <v>-1345.875381666203</v>
+        <v>3983407.339968063</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -7620,34 +7614,34 @@
         <v>46</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D206" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E206">
         <v>197.142</v>
       </c>
       <c r="F206">
-        <v>33.15566163870539</v>
+        <v>1116401.936947752</v>
       </c>
       <c r="G206">
-        <v>625.4813110080383</v>
+        <v>4841754.388672788</v>
       </c>
       <c r="H206">
-        <v>1528.746791621701</v>
+        <v>3986305.152739164</v>
       </c>
       <c r="I206">
-        <v>713.7648834021664</v>
+        <v>1117252.120370347</v>
       </c>
       <c r="J206">
-        <v>-284.1592622052219</v>
+        <v>4841028.136578271</v>
       </c>
       <c r="K206">
-        <v>-1852.522244417396</v>
+        <v>3983044.594831561</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7655,34 +7649,34 @@
         <v>46</v>
       </c>
       <c r="B207" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C207" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D207" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E207">
         <v>198.142</v>
       </c>
       <c r="F207">
-        <v>32.72796899280826</v>
+        <v>1116401.422033093</v>
       </c>
       <c r="G207">
-        <v>645.0618083169899</v>
+        <v>4841770.901499973</v>
       </c>
       <c r="H207">
-        <v>1534.90007896348</v>
+        <v>3986312.933152951</v>
       </c>
       <c r="I207">
-        <v>784.6493437622731</v>
+        <v>1117340.611965158</v>
       </c>
       <c r="J207">
-        <v>-357.1821442644978</v>
+        <v>4840979.485048492</v>
       </c>
       <c r="K207">
-        <v>-2380.327275430593</v>
+        <v>3982666.701031958</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -7690,34 +7684,34 @@
         <v>46</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D208" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E208">
         <v>199.142</v>
       </c>
       <c r="F208">
-        <v>32.31640828450668</v>
+        <v>1116400.926540258</v>
       </c>
       <c r="G208">
-        <v>664.6423056259415</v>
+        <v>4841787.414327158</v>
       </c>
       <c r="H208">
-        <v>1540.897808563668</v>
+        <v>3986320.516874542</v>
       </c>
       <c r="I208">
-        <v>857.2792687462405</v>
+        <v>1117431.28258408</v>
       </c>
       <c r="J208">
-        <v>-430.2050263237743</v>
+        <v>4840930.833518712</v>
       </c>
       <c r="K208">
-        <v>-2929.290474705799</v>
+        <v>3982273.658569257</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -7725,34 +7719,34 @@
         <v>46</v>
       </c>
       <c r="B209" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C209" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D209" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E209">
         <v>200.142</v>
       </c>
       <c r="F209">
-        <v>31.919990437447</v>
+        <v>1116400.449278462</v>
       </c>
       <c r="G209">
-        <v>684.222802934893</v>
+        <v>4841803.927154343</v>
       </c>
       <c r="H209">
-        <v>1546.747652012385</v>
+        <v>3986327.913604142</v>
       </c>
       <c r="I209">
-        <v>931.6976388146317</v>
+        <v>1117524.185883578</v>
       </c>
       <c r="J209">
-        <v>-503.2279083830508</v>
+        <v>4840882.181988931</v>
       </c>
       <c r="K209">
-        <v>-3499.411842243012</v>
+        <v>3981865.467443455</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -7760,34 +7754,34 @@
         <v>46</v>
       </c>
       <c r="B210" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C210" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D210" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E210">
         <v>201.142</v>
       </c>
       <c r="F210">
-        <v>31.53780922812559</v>
+        <v>1116399.989156669</v>
       </c>
       <c r="G210">
-        <v>703.8033002438445</v>
+        <v>4841820.439981528</v>
       </c>
       <c r="H210">
-        <v>1552.456727024082</v>
+        <v>3986335.132341617</v>
       </c>
       <c r="I210">
-        <v>1007.948492782312</v>
+        <v>1117619.376841357</v>
       </c>
       <c r="J210">
-        <v>-576.2507904423273</v>
+        <v>4840833.530459152</v>
       </c>
       <c r="K210">
-        <v>-4090.691378042231</v>
+        <v>3981442.127654554</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -7795,34 +7789,34 @@
         <v>46</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C211" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D211" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E211">
         <v>202.142</v>
       </c>
       <c r="F211">
-        <v>31.16903257245111</v>
+        <v>1116399.545173104</v>
       </c>
       <c r="G211">
-        <v>723.3837975527963</v>
+        <v>4841836.952808713</v>
       </c>
       <c r="H211">
-        <v>1558.031649505427</v>
+        <v>3986342.181452332</v>
       </c>
       <c r="I211">
-        <v>1086.076953879448</v>
+        <v>1117716.911788897</v>
       </c>
       <c r="J211">
-        <v>-649.2736725016039</v>
+        <v>4840784.878929372</v>
       </c>
       <c r="K211">
-        <v>-4703.129082103456</v>
+        <v>3981003.639202553</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -7830,34 +7824,34 @@
         <v>46</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D212" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E212">
         <v>203.142</v>
       </c>
       <c r="F212">
-        <v>30.81289490657373</v>
+        <v>1116399.116406076</v>
       </c>
       <c r="G212">
-        <v>742.9642948617477</v>
+        <v>4841853.465635898</v>
       </c>
       <c r="H212">
-        <v>1563.478579645014</v>
+        <v>3986349.068725426</v>
       </c>
       <c r="I212">
-        <v>1166.129256454233</v>
+        <v>1117816.84844479</v>
       </c>
       <c r="J212">
-        <v>-722.2965545608797</v>
+        <v>4840736.227399593</v>
       </c>
       <c r="K212">
-        <v>-5336.724954426683</v>
+        <v>3980550.002087452</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -7865,34 +7859,34 @@
         <v>46</v>
       </c>
       <c r="B213" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C213" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D213" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E213">
         <v>204.142</v>
       </c>
       <c r="F213">
-        <v>30.46869050322248</v>
+        <v>1116398.702005935</v>
       </c>
       <c r="G213">
-        <v>762.5447921706992</v>
+        <v>4841869.978463084</v>
       </c>
       <c r="H213">
-        <v>1568.803262830115</v>
+        <v>3986355.801425552</v>
       </c>
       <c r="I213">
-        <v>1248.152773333155</v>
+        <v>1117919.245948894</v>
       </c>
       <c r="J213">
-        <v>-795.3194366201562</v>
+        <v>4840687.575869813</v>
       </c>
       <c r="K213">
-        <v>-5991.478995011922</v>
+        <v>3980081.216309252</v>
       </c>
     </row>
   </sheetData>
